--- a/output/probab.xlsx
+++ b/output/probab.xlsx
@@ -344,7 +344,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.037232616839586515</v>
+        <v>0.03881082023822283</v>
       </c>
       <c r="B1" t="n">
         <v>0.0</v>
@@ -359,12 +359,12 @@
         <v>0.0</v>
       </c>
       <c r="F1" t="n">
-        <v>0.007786707925954074</v>
+        <v>0.00649493149175268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03483990966304307</v>
+        <v>0.03520569744549359</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -379,12 +379,12 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006383600983598322</v>
+        <v>0.005448088191543902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03476026837446116</v>
+        <v>0.03406308301004888</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -399,12 +399,12 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006539923603620961</v>
+        <v>0.005299581934621506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.035650080775492095</v>
+        <v>0.03385408802520742</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -419,12 +419,12 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006728794756909442</v>
+        <v>0.005618322696630315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.03587067247384149</v>
+        <v>0.032918457915096795</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -439,12 +439,12 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006780738288191893</v>
+        <v>0.005665458210795932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02622489928677825</v>
+        <v>0.02946506062714558</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.027474856176554045</v>
+        <v>0.027645531181368966</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03573745095642044</v>
+        <v>0.028254396650628653</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -499,12 +499,12 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007901474666502359</v>
+        <v>0.006302012874931242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03351924330984936</v>
+        <v>0.026192050273509654</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -519,12 +519,12 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0068988381137035015</v>
+        <v>0.0057665074605369486</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.033499377048794826</v>
+        <v>0.025306761895944434</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -539,12 +539,12 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006645198302418368</v>
+        <v>0.005609539047718065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.034888393273610006</v>
+        <v>0.025160965597477273</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -559,12 +559,12 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007064885903627017</v>
+        <v>0.005496401000576765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.035422761511816725</v>
+        <v>0.024755846152781345</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -579,12 +579,12 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007054881546222006</v>
+        <v>0.00535129094573193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.026725127727868076</v>
+        <v>0.024677609899035762</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02820807937348257</v>
+        <v>0.024392039686728303</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.03763038254655299</v>
+        <v>0.02550981993344059</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -639,12 +639,12 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007657418334193711</v>
+        <v>0.005394301931728698</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03399546727632318</v>
+        <v>0.02439145606432819</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -659,12 +659,12 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006649223212638862</v>
+        <v>0.004950453437296032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.033636363733447305</v>
+        <v>0.02435219724286218</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -679,12 +679,12 @@
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006708136995290113</v>
+        <v>0.004928759754611804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03431451486527963</v>
+        <v>0.024441701735433363</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -699,12 +699,12 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006972558031493174</v>
+        <v>0.004934464928785154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03529502070684394</v>
+        <v>0.025169310853652864</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -719,12 +719,12 @@
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006961431393880648</v>
+        <v>0.00503402456622385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02667416130051403</v>
+        <v>0.023974439137026373</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.027958966423799556</v>
+        <v>0.02485936017879132</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03765813166186176</v>
+        <v>0.027224309691460214</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -779,12 +779,12 @@
         <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007828266436048881</v>
+        <v>0.005603046107463638</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0.033964548338909474</v>
+      <c r="A23" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -799,12 +799,12 @@
         <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.006688219441819437</v>
+        <v>0.005117351862847454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0340023543742602</v>
+        <v>0.025262018915447174</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -819,12 +819,12 @@
         <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006714210284126735</v>
+        <v>0.005002428733707537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.034440247174718865</v>
+        <v>0.025356942178026635</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -839,12 +839,12 @@
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006820830901187495</v>
+        <v>0.005066609242323744</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.03589424992847507</v>
+        <v>0.025291029553487315</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -859,12 +859,12 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007133129376874352</v>
+        <v>0.005101540028445417</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.026985965554847748</v>
+        <v>0.024366925493555187</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.028677361977912607</v>
+        <v>0.02537805146024576</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03694374437847749</v>
+        <v>0.027087344772221376</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -919,12 +919,12 @@
         <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.007991455927717411</v>
+        <v>0.005613270515881046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03427154651862862</v>
+        <v>0.02569937945395886</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -939,12 +939,12 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0068403275898590845</v>
+        <v>0.005166406506582205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.03481467374248638</v>
+        <v>0.02574993379225622</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -959,12 +959,12 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.006941482225740536</v>
+        <v>0.005105262732123708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03466596016759416</v>
+        <v>0.026093048592983004</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -979,44 +979,44 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.006961606038325823</v>
+        <v>0.005150818389357825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.03901610051553934</v>
+        <v>0.02543710359061768</v>
       </c>
       <c r="B33" t="n">
-        <v>0.062122239573528554</v>
+        <v>0.02299285096898865</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03219757863275857</v>
+        <v>0.013746317130125812</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00802373185384196</v>
+        <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005721944687741204</v>
+        <v>0.0038023434546440027</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007449167533382274</v>
+        <v>0.005185464713969873</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02816755509242372</v>
+        <v>0.027855211154374684</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02184606088757833</v>
+        <v>0.010835196141680995</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008692388353001264</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005762144164966123</v>
+        <v>0.0037833998941318586</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.031083953729526295</v>
+        <v>0.026484549032845136</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -1044,119 +1044,119 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.04701595206070226</v>
+        <v>0.029067916832568142</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06282268789936361</v>
+        <v>0.0236602021477864</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03414324950915313</v>
+        <v>0.014914696086503951</v>
       </c>
       <c r="D36" t="n">
-        <v>0.007610169059009955</v>
+        <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0049314120685690094</v>
+        <v>0.003627149829040751</v>
       </c>
       <c r="F36" t="n">
-        <v>0.007941260662466332</v>
+        <v>0.005698144547564643</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.04066823606593207</v>
+        <v>0.025626348331306326</v>
       </c>
       <c r="B37" t="n">
-        <v>0.050030300974279476</v>
+        <v>0.018488151097562938</v>
       </c>
       <c r="C37" t="n">
-        <v>0.025644096494719056</v>
+        <v>0.012245105031714219</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004899413752306508</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00478362279534875</v>
+        <v>0.0034153367306730804</v>
       </c>
       <c r="F37" t="n">
-        <v>0.007005434869832521</v>
+        <v>0.005069785420755928</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.043175609801016784</v>
+        <v>0.026342816853688222</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05299693619697558</v>
+        <v>0.02010120170005325</v>
       </c>
       <c r="C38" t="n">
-        <v>0.027237985390547094</v>
+        <v>0.012492856551116082</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004792462494891232</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005548523838649769</v>
+        <v>0.003220405730271132</v>
       </c>
       <c r="F38" t="n">
-        <v>0.006908939962676645</v>
+        <v>0.005025078832832874</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.04811245676060487</v>
+        <v>0.028362924356945103</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05393456709551916</v>
+        <v>0.01973096057239356</v>
       </c>
       <c r="C39" t="n">
-        <v>0.028437241608049828</v>
+        <v>0.013119178928102736</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00791810972399649</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004916498418825022</v>
+        <v>0.003366956476275602</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00693399971006534</v>
+        <v>0.005258862353180876</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.04890947613165361</v>
+        <v>0.029285417780448672</v>
       </c>
       <c r="B40" t="n">
-        <v>0.054477009647067295</v>
+        <v>0.020663587704269164</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02618482967078166</v>
+        <v>0.013496436779188825</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006658311494658927</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00525945880843514</v>
+        <v>0.0033531248328369607</v>
       </c>
       <c r="F40" t="n">
-        <v>0.007281563689670314</v>
+        <v>0.005322437891285622</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.03941848181807685</v>
+        <v>0.03318440472584295</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.027689142865960848</v>
+        <v>0.01329084563582761</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006119263006117706</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005294590026253214</v>
+        <v>0.003607383957504925</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03822984117711907</v>
+        <v>0.032786675822488835</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -1184,119 +1184,119 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05641860019667984</v>
+        <v>0.0342928565502809</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07189501356317796</v>
+        <v>0.024924699075301378</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03612019500538618</v>
+        <v>0.016465419052008826</v>
       </c>
       <c r="D43" t="n">
-        <v>0.010459207385160976</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00525615011707681</v>
+        <v>0.003924246128591031</v>
       </c>
       <c r="F43" t="n">
-        <v>0.007928268861862769</v>
+        <v>0.005886867320574234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.04594946468287831</v>
+        <v>0.030740896066538015</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05064877557992646</v>
+        <v>0.020329040907080535</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02552913848587959</v>
+        <v>0.013749286970864057</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007700927021043352</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005524220962741245</v>
+        <v>0.004140508039425995</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007079574824959911</v>
+        <v>0.005551607153799481</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.05057897412338032</v>
+        <v>0.030471042042885386</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05779256863517805</v>
+        <v>0.0188685954278189</v>
       </c>
       <c r="C45" t="n">
-        <v>0.031050201683946482</v>
+        <v>0.013307093007805018</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007553179901461607</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005074104460482167</v>
+        <v>0.004242954877629271</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00725292346993472</v>
+        <v>0.005692282486218013</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05149610686400526</v>
+        <v>0.03222112398225494</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05782623886864498</v>
+        <v>0.020004112931731502</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0281844288678241</v>
+        <v>0.014110770394771682</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0058634572016181144</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.005426986337139875</v>
+        <v>0.004186237611801194</v>
       </c>
       <c r="F46" t="n">
-        <v>0.007386637539987488</v>
+        <v>0.005810960393491397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.05245739394370651</v>
+        <v>0.03200890177600647</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05255586546635218</v>
+        <v>0.020029132770723396</v>
       </c>
       <c r="C47" t="n">
-        <v>0.028944096604244195</v>
+        <v>0.013588978610474227</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0074848194605116785</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.005068837054681183</v>
+        <v>0.004136729431284952</v>
       </c>
       <c r="F47" t="n">
-        <v>0.007444318667668567</v>
+        <v>0.005668301467805089</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.04102738836411071</v>
+        <v>0.035498163957020545</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.028798924309419865</v>
+        <v>0.013371938383252563</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008570602521993338</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.005368470249064345</v>
+        <v>0.004178304055488438</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.04012743071451848</v>
+        <v>0.034194450638017515</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -1324,119 +1324,119 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05856479013762166</v>
+        <v>0.03564507058080631</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06812867346598064</v>
+        <v>0.024720240062516365</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03825242562388714</v>
+        <v>0.01573476429252795</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008911331888723137</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.005594864914704184</v>
+        <v>0.003817903734959646</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00809689692930318</v>
+        <v>0.006152630039845382</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.04742846034235206</v>
+        <v>0.03209963762017011</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05487696917777109</v>
+        <v>0.020067741673831494</v>
       </c>
       <c r="C51" t="n">
-        <v>0.028757278818776533</v>
+        <v>0.013264499779087642</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007708045360992426</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005446091714717388</v>
+        <v>0.004229053804641981</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0072442104030154345</v>
+        <v>0.005786736006277279</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05083123263477333</v>
+        <v>0.031705460055611534</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05809432001932186</v>
+        <v>0.020608483167234962</v>
       </c>
       <c r="C52" t="n">
-        <v>0.032534492132446496</v>
+        <v>0.01356891645300312</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0072447099974893995</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006064358469618206</v>
+        <v>0.0044558375500197344</v>
       </c>
       <c r="F52" t="n">
-        <v>0.007152402858658476</v>
+        <v>0.005798122698361504</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0.052085417931118476</v>
+      <c r="A53" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05387670580750792</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.029709355314665002</v>
+        <v>0.02047019286208988</v>
+      </c>
+      <c r="C53" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D53" t="n">
-        <v>0.008278643311876503</v>
+        <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005895232421156803</v>
+        <v>0.004477576627787264</v>
       </c>
       <c r="F53" t="n">
-        <v>0.007560048916404962</v>
+        <v>0.005838324958488571</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.05381487596086408</v>
+        <v>0.028859608509214093</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0589373307245465</v>
+        <v>0.01978714606122747</v>
       </c>
       <c r="C54" t="n">
-        <v>0.031482432085606714</v>
+        <v>0.01395483478126457</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006897635721395803</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.005084797105736979</v>
+        <v>0.004321883453604539</v>
       </c>
       <c r="F54" t="n">
-        <v>0.007530321015103989</v>
+        <v>0.005822427627008929</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.042463374021529804</v>
+        <v>0.03631674130589405</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.030969141329875164</v>
+        <v>0.013558622884694728</v>
       </c>
       <c r="D55" t="n">
-        <v>0.012005615075102349</v>
+        <v>0.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0051422936494151614</v>
+        <v>0.004223299743782363</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.04214724469941653</v>
+        <v>0.03498520400570472</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -1464,119 +1464,119 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.06023606186458292</v>
+        <v>0.03577182125348224</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06947417136043423</v>
+        <v>0.024061831632490087</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03711256926167095</v>
+        <v>0.01617674804472627</v>
       </c>
       <c r="D57" t="n">
-        <v>0.011341482916936619</v>
+        <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.005005488769798577</v>
+        <v>0.004177030792821044</v>
       </c>
       <c r="F57" t="n">
-        <v>0.007825288737191596</v>
+        <v>0.006148353997871864</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.04962145898372631</v>
+        <v>0.03239447914065886</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05386901168579196</v>
+        <v>0.019335636320529103</v>
       </c>
       <c r="C58" t="n">
-        <v>0.029276407893605607</v>
+        <v>0.013688483151243653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.014747067541561019</v>
+        <v>0.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.005270646358879287</v>
+        <v>0.004227166844560481</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007276188006868494</v>
+        <v>0.005825681747054512</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.052685077283877314</v>
+        <v>0.028118512914222113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05725495225722738</v>
+        <v>0.019912588927216153</v>
       </c>
       <c r="C59" t="n">
-        <v>0.030068096645627054</v>
+        <v>0.01344146422170924</v>
       </c>
       <c r="D59" t="n">
-        <v>0.010351053615427945</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.005635025196185268</v>
+        <v>0.004336201948923673</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00726568439654745</v>
+        <v>0.005903179339507795</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.055151184423659155</v>
+        <v>0.030295251998059016</v>
       </c>
       <c r="B60" t="n">
-        <v>0.058814985885606914</v>
+        <v>0.020126919342106645</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03184985447479859</v>
+        <v>0.013928640897481418</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008494330362100363</v>
+        <v>0.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.005944889396009971</v>
+        <v>0.00441274006512467</v>
       </c>
       <c r="F60" t="n">
-        <v>0.007521904266362659</v>
+        <v>0.005925498512598028</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.055624115093145646</v>
+        <v>0.03317032545836147</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0574649695344521</v>
+        <v>0.020259873275240106</v>
       </c>
       <c r="C61" t="n">
-        <v>0.029606931068430903</v>
+        <v>0.013803004427120458</v>
       </c>
       <c r="D61" t="n">
-        <v>0.010628249164385699</v>
+        <v>0.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.005370831001922501</v>
+        <v>0.004486770565123144</v>
       </c>
       <c r="F61" t="n">
-        <v>0.007457889651100518</v>
+        <v>0.005862161342743211</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.04432892605572348</v>
+        <v>0.036524997216562875</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02976835279442099</v>
+        <v>0.01350788234742429</v>
       </c>
       <c r="D62" t="n">
-        <v>0.012724150051591356</v>
+        <v>0.0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.005139120291933627</v>
+        <v>0.004276157874173321</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.04306905845146622</v>
+        <v>0.03480211347862492</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -1604,127 +1604,127 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.06357733710651083</v>
+        <v>0.03604673271700488</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06701722906710604</v>
+        <v>0.02352288200596477</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03872129231600773</v>
+        <v>0.01616983848287137</v>
       </c>
       <c r="D64" t="n">
-        <v>0.011164673025491156</v>
+        <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.005254863394166233</v>
+        <v>0.0039208474551127226</v>
       </c>
       <c r="F64" t="n">
-        <v>0.008096708633260525</v>
+        <v>0.006251959723051433</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>0.05135059236519329</v>
+      <c r="A65" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B65" t="n">
-        <v>0.05286503337995854</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.027637996264761416</v>
+        <v>0.01896508273787211</v>
+      </c>
+      <c r="C65" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D65" t="n">
-        <v>0.011202525502464384</v>
+        <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.005277473899457747</v>
+        <v>0.004351996624777776</v>
       </c>
       <c r="F65" t="n">
-        <v>0.007345673982567197</v>
+        <v>0.005805039507512187</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.056965899192988854</v>
+        <v>0.03245283069479061</v>
       </c>
       <c r="B66" t="n">
-        <v>0.060645755076729604</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.03267723896718388</v>
+        <v>0.021055476714011277</v>
+      </c>
+      <c r="C66" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D66" t="n">
-        <v>0.014863850568990472</v>
+        <v>0.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0056652411924624</v>
+        <v>0.0046357081524099515</v>
       </c>
       <c r="F66" t="n">
-        <v>0.007420467682654226</v>
+        <v>0.006043317530187885</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>0.058790649939261634</v>
+      <c r="A67" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05764880711832522</v>
+        <v>0.021888614925585997</v>
       </c>
       <c r="C67" t="n">
-        <v>0.030530522426614342</v>
+        <v>0.014764866833031957</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00802368394178183</v>
+        <v>0.0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.005197059919408065</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0075119480280805085</v>
+        <v>0.004886685609264081</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.06077376355672465</v>
+        <v>0.03493810559405886</v>
       </c>
       <c r="B68" t="n">
-        <v>0.059507792980896625</v>
+        <v>0.022372847395735286</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03191492911437989</v>
+        <v>0.01505303023891419</v>
       </c>
       <c r="D68" t="n">
-        <v>0.011655653983696997</v>
+        <v>0.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.005479233153958019</v>
+        <v>0.004707253995222479</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00742915492837816</v>
+        <v>0.006154548334340178</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.04736862803860644</v>
+        <v>0.03852219191871963</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03012419978617438</v>
+        <v>0.014647228238927086</v>
       </c>
       <c r="D69" t="n">
-        <v>0.009938093294215557</v>
+        <v>0.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.005497767676061372</v>
+        <v>0.004620005152897552</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>0.04688538497162619</v>
+      <c r="A70" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -1743,128 +1743,128 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>0.0664099986794071</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.06968111392581329</v>
+      <c r="A71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B71" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03922261878793236</v>
+        <v>0.017544040425395584</v>
       </c>
       <c r="D71" t="n">
-        <v>0.010569406989386704</v>
+        <v>0.0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.005259388046855393</v>
+        <v>0.004023160613640109</v>
       </c>
       <c r="F71" t="n">
-        <v>0.008157446614736035</v>
+        <v>0.006529150649717147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.05317565958085734</v>
+        <v>0.03425645812204611</v>
       </c>
       <c r="B72" t="n">
-        <v>0.05369090744532284</v>
+        <v>0.021599129787989883</v>
       </c>
       <c r="C72" t="n">
-        <v>0.028294441028509837</v>
+        <v>0.014925298638384</v>
       </c>
       <c r="D72" t="n">
-        <v>0.010856743626048748</v>
+        <v>0.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.005630052923777792</v>
+        <v>0.0044259747186762045</v>
       </c>
       <c r="F72" t="n">
-        <v>0.007521624675166899</v>
+        <v>0.006010786929784473</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.059158718140155206</v>
+        <v>0.0326324807003228</v>
       </c>
       <c r="B73" t="n">
-        <v>0.060196398430788396</v>
+        <v>0.022098060404128282</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03320462165617508</v>
+        <v>0.013822414355094669</v>
       </c>
       <c r="D73" t="n">
-        <v>0.013688763022049992</v>
+        <v>0.0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0059939835115694635</v>
+        <v>0.004459584683164488</v>
       </c>
       <c r="F73" t="n">
-        <v>0.007618958845626015</v>
+        <v>0.006074359422387575</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0628276218648823</v>
+        <v>0.03445143726808725</v>
       </c>
       <c r="B74" t="n">
-        <v>0.058782831125543236</v>
+        <v>0.022583871057951087</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0323993890307271</v>
+        <v>0.014800651965756723</v>
       </c>
       <c r="D74" t="n">
-        <v>0.011118416986966808</v>
+        <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00538354518143304</v>
+        <v>0.004341633114214798</v>
       </c>
       <c r="F74" t="n">
-        <v>0.007590796962835973</v>
+        <v>0.006173988989885988</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>0.06192208366753592</v>
+      <c r="A75" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06149173503874468</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.03221691431662868</v>
+        <v>0.023006845068723317</v>
+      </c>
+      <c r="C75" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D75" t="n">
-        <v>0.012685389728265899</v>
+        <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.005641268702104159</v>
+        <v>0.004353904689610337</v>
       </c>
       <c r="F75" t="n">
-        <v>0.007495834344362555</v>
+        <v>0.006180805319216466</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0.049091918652171884</v>
+      <c r="A76" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.03064047911052976</v>
+      <c r="C76" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D76" t="n">
-        <v>0.014851988084574445</v>
+        <v>0.0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.005480080651550642</v>
+        <v>0.004317893728076637</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0.04803236833335968</v>
+      <c r="A77" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -1884,127 +1884,127 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.0686616621941227</v>
+        <v>0.038172257636861176</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07194542527979599</v>
+        <v>0.02876144492529634</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04090353970177367</v>
+        <v>0.01745268355765408</v>
       </c>
       <c r="D78" t="n">
-        <v>0.015028678291285848</v>
+        <v>0.0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005231762487870102</v>
+        <v>0.004274053910713975</v>
       </c>
       <c r="F78" t="n">
-        <v>0.008207631136129264</v>
+        <v>0.006644600319916181</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.05468715979263433</v>
+        <v>0.03404631890708863</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05699059048326781</v>
+        <v>0.021605518931975154</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02974006505673203</v>
+        <v>0.015027310263196246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.012479956362865172</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005368658278682246</v>
+        <v>0.004368988206897718</v>
       </c>
       <c r="F79" t="n">
-        <v>0.007473945591141837</v>
+        <v>0.006123983798989732</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.059385102148191926</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.06041194795206743</v>
+        <v>0.03314135560788278</v>
+      </c>
+      <c r="B80" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C80" t="n">
-        <v>0.032437063220593865</v>
+        <v>0.014149921536356818</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0119555842544616</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005758973598207241</v>
+        <v>0.004571894455282668</v>
       </c>
       <c r="F80" t="n">
-        <v>0.007704980626335436</v>
+        <v>0.0061247138356307915</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.05931195038233103</v>
+        <v>0.03418643288672212</v>
       </c>
       <c r="B81" t="n">
-        <v>0.06151941314850494</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.032657026756359495</v>
+        <v>0.022051953105504393</v>
+      </c>
+      <c r="C81" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D81" t="n">
-        <v>0.011843271720005013</v>
+        <v>0.0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.005933673670775311</v>
+        <v>0.004429374822195978</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0076842798647959</v>
+        <v>0.006159815266897634</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.06225397316881782</v>
+        <v>0.03462107983006634</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05768669274410479</v>
+        <v>0.02308772512566001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03245468985085036</v>
+        <v>0.015021227347713008</v>
       </c>
       <c r="D82" t="n">
-        <v>0.011346422790414722</v>
+        <v>0.0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.005623834433514499</v>
+        <v>0.004352556578503354</v>
       </c>
       <c r="F82" t="n">
-        <v>0.007705453038175051</v>
+        <v>0.006205389997414597</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.04914885793864049</v>
+        <v>0.03881989980362619</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03159652343138603</v>
+        <v>0.014854839310828557</v>
       </c>
       <c r="D83" t="n">
-        <v>0.014912261235062823</v>
+        <v>0.0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.005286146275929565</v>
+        <v>0.004615976578011058</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>0.04773543432900046</v>
+      <c r="A84" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -2024,127 +2024,127 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.06889631475060172</v>
+        <v>0.03853069517310532</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07523178827725191</v>
+        <v>0.028435789776288266</v>
       </c>
       <c r="C85" t="n">
-        <v>0.040304988661934486</v>
+        <v>0.017991509962713297</v>
       </c>
       <c r="D85" t="n">
-        <v>0.011943275323210588</v>
+        <v>0.0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.005591991817198567</v>
+        <v>0.004165340551501945</v>
       </c>
       <c r="F85" t="n">
-        <v>0.008327814992461801</v>
+        <v>0.006694291832883045</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.054821511895933636</v>
+        <v>0.03476489556784792</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0549419071210024</v>
+        <v>0.02109731905853904</v>
       </c>
       <c r="C86" t="n">
-        <v>0.030662067642422585</v>
+        <v>0.015164850916564658</v>
       </c>
       <c r="D86" t="n">
-        <v>0.012307234771001582</v>
+        <v>0.0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00589485509820606</v>
+        <v>0.004592164757569029</v>
       </c>
       <c r="F86" t="n">
-        <v>0.007579582778410066</v>
+        <v>0.006151306909025722</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>0.0600122742637181</v>
+      <c r="A87" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06256487737570399</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.03343124655463724</v>
+        <v>0.022055430396827575</v>
+      </c>
+      <c r="C87" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D87" t="n">
-        <v>0.012229015705788153</v>
+        <v>0.0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.006020841740764586</v>
+        <v>0.004686148648718877</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00777013802717341</v>
+        <v>0.006213287774650025</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.06172607934137246</v>
+        <v>0.03478060762241182</v>
       </c>
       <c r="B88" t="n">
-        <v>0.058722125911866395</v>
+        <v>0.023034583488892552</v>
       </c>
       <c r="C88" t="n">
-        <v>0.033079008110326984</v>
+        <v>0.014942338471024986</v>
       </c>
       <c r="D88" t="n">
-        <v>0.012867416630504785</v>
+        <v>0.0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0057967381806360825</v>
+        <v>0.00467889091284643</v>
       </c>
       <c r="F88" t="n">
-        <v>0.007874880790631382</v>
+        <v>0.006290476911869559</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.06324163301573588</v>
+        <v>0.03376745198376619</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05990436439872572</v>
+        <v>0.022963972304543195</v>
       </c>
       <c r="C89" t="n">
-        <v>0.03301392919963045</v>
+        <v>0.014724355401355511</v>
       </c>
       <c r="D89" t="n">
-        <v>0.010148590668438874</v>
+        <v>0.0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.005441641929526899</v>
+        <v>0.00474722819778652</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0078881267558297</v>
+        <v>0.006284929183154417</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.049608053678757535</v>
+        <v>0.03903377554138724</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03360943398820405</v>
+        <v>0.01488670450697981</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01117634217400128</v>
+        <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.005361651776523856</v>
+        <v>0.0044744179587291035</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0.048456643465872966</v>
+      <c r="A91" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -2163,128 +2163,128 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>0.06992648673781705</v>
+      <c r="A92" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07304512528009728</v>
+        <v>0.029458469598308355</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04193494845599777</v>
+        <v>0.017845642717318717</v>
       </c>
       <c r="D92" t="n">
-        <v>0.011309497656741708</v>
+        <v>0.0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0057719441051599756</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.00854289354261576</v>
+        <v>0.004407426248349567</v>
+      </c>
+      <c r="F92" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.05520404307766602</v>
+        <v>0.034655883255482856</v>
       </c>
       <c r="B93" t="n">
-        <v>0.05562628304474484</v>
+        <v>0.022390876033834717</v>
       </c>
       <c r="C93" t="n">
-        <v>0.030197061639837503</v>
+        <v>0.015216729054230238</v>
       </c>
       <c r="D93" t="n">
-        <v>0.012663726675383753</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.005792266608810963</v>
+        <v>0.004743139778413799</v>
       </c>
       <c r="F93" t="n">
-        <v>0.007678223654729138</v>
+        <v>0.00618117388284988</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.06140427463214935</v>
+        <v>0.03357005138107254</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06327806544088106</v>
+        <v>0.021761504556761596</v>
       </c>
       <c r="C94" t="n">
-        <v>0.034769798984272945</v>
+        <v>0.014446229150077133</v>
       </c>
       <c r="D94" t="n">
-        <v>0.012273956778392067</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006126099531325728</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.007872490156328548</v>
+        <v>0.00496181039492851</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.06246694175270399</v>
+        <v>0.03460715833871678</v>
       </c>
       <c r="B95" t="n">
-        <v>0.060991223673995586</v>
+        <v>0.022517143672567158</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03352046633875461</v>
+        <v>0.01492115125634984</v>
       </c>
       <c r="D95" t="n">
-        <v>0.012671900184457085</v>
+        <v>0.0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0060267117505464025</v>
+        <v>0.0047998596769265895</v>
       </c>
       <c r="F95" t="n">
-        <v>0.007978542052246166</v>
+        <v>0.006219540447273787</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.06359776652170743</v>
+        <v>0.03408051800092279</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06115711254897989</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.032421721514490555</v>
+        <v>0.022414257171740393</v>
+      </c>
+      <c r="C96" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01198631205824729</v>
+        <v>0.0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005713715425370904</v>
+        <v>0.004629291765343999</v>
       </c>
       <c r="F96" t="n">
-        <v>0.007940293010470266</v>
+        <v>0.00609751742006987</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.050844516928239616</v>
+        <v>0.03775109060531253</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
-      <c r="C97" t="n">
-        <v>0.033502100521591416</v>
+      <c r="C97" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D97" t="n">
-        <v>0.012670345188629313</v>
+        <v>0.0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.005641389786072832</v>
+        <v>0.004451263599441867</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>0.04957289880260027</v>
+      <c r="A98" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -2304,107 +2304,107 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.06802269247433422</v>
+        <v>0.03693810362361665</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07448958377369563</v>
+        <v>0.02727009993019984</v>
       </c>
       <c r="C99" t="n">
         <v>0.0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.012694815742227033</v>
+        <v>0.0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0058008104861415975</v>
+        <v>0.0040766201476876845</v>
       </c>
       <c r="F99" t="n">
-        <v>0.008634947017981535</v>
+        <v>0.006558635961905574</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>0.05639536001386289</v>
+      <c r="A100" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05672628624325319</v>
+        <v>0.022303243050827738</v>
       </c>
       <c r="C100" t="n">
         <v>0.0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.012758072490406077</v>
+        <v>0.0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.005909244255154293</v>
+        <v>0.004254164423693783</v>
       </c>
       <c r="F100" t="n">
-        <v>0.007798800155297309</v>
+        <v>0.006125232742936011</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0.05705570076242097</v>
+      <c r="A101" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06540747311959381</v>
+        <v>0.021836008278780267</v>
       </c>
       <c r="C101" t="n">
         <v>0.0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.013862931849384847</v>
+        <v>0.0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.006426364746252653</v>
+        <v>0.004517246297747513</v>
       </c>
       <c r="F101" t="n">
-        <v>0.008026461388653388</v>
+        <v>0.006197287256017627</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.05599666153163709</v>
+        <v>0.03360400224402738</v>
       </c>
       <c r="B102" t="n">
-        <v>0.06254578900431415</v>
+        <v>0.022192031340679836</v>
       </c>
       <c r="C102" t="n">
         <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.012430444944673763</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.006070219140295649</v>
+        <v>0.0045073235669422776</v>
       </c>
       <c r="F102" t="n">
-        <v>0.008221044552163204</v>
+        <v>0.00626938525311882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.056280345312832755</v>
+        <v>0.033101822710753626</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0648511786882338</v>
+        <v>0.022528704037619227</v>
       </c>
       <c r="C103" t="n">
         <v>0.0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.012087691258303614</v>
+        <v>0.0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.005969808649058138</v>
+        <v>0.004558857168409151</v>
       </c>
       <c r="F103" t="n">
-        <v>0.008280478862943868</v>
+        <v>0.006288324989735692</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.043079703954134574</v>
+        <v>0.03636017976935959</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -2413,10 +2413,10 @@
         <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.013499607883825097</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.005879631197614618</v>
+        <v>0.004630104772029107</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.04908249181798814</v>
+        <v>0.03336638834470643</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -2444,127 +2444,127 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.059905105074359095</v>
+        <v>0.034407270316563154</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07912380173608338</v>
+        <v>0.029825287641099547</v>
       </c>
       <c r="C106" t="n">
-        <v>0.03283478617734178</v>
+        <v>0.013033563264093991</v>
       </c>
       <c r="D106" t="n">
-        <v>0.012951586820667061</v>
+        <v>0.0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.005569851668319734</v>
+        <v>0.0044423213512656545</v>
       </c>
       <c r="F106" t="n">
-        <v>0.009027327581985985</v>
+        <v>0.00714633425966322</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.04775117532802885</v>
+        <v>0.03369647181381269</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05779597358377258</v>
+        <v>0.022011872082476274</v>
       </c>
       <c r="C107" t="n">
-        <v>0.025520806089106184</v>
+        <v>0.011048816137756488</v>
       </c>
       <c r="D107" t="n">
-        <v>0.013157547524251304</v>
+        <v>0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.006019148627241025</v>
+        <v>0.004498382459943362</v>
       </c>
       <c r="F107" t="n">
-        <v>0.007953398805514215</v>
+        <v>0.00644474508026304</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04526658850266199</v>
+        <v>0.030408015631122675</v>
       </c>
       <c r="B108" t="n">
-        <v>0.06487465459634409</v>
+        <v>0.02175576581282617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0302039294346265</v>
+        <v>0.011862822809546623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.009647130550024316</v>
+        <v>0.0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00598749120419892</v>
+        <v>0.0046689019223324045</v>
       </c>
       <c r="F108" t="n">
-        <v>0.008029286298283705</v>
+        <v>0.006353939945764105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.058450002657082605</v>
+        <v>0.031737388512893955</v>
       </c>
       <c r="B109" t="n">
-        <v>0.06398171121522069</v>
+        <v>0.02219466822752508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03067771466349985</v>
+        <v>0.013727270158024574</v>
       </c>
       <c r="D109" t="n">
-        <v>0.012495374705067255</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.005991634263684813</v>
+        <v>0.00470654636166912</v>
       </c>
       <c r="F109" t="n">
-        <v>0.008055819131434485</v>
+        <v>0.0063610812399616246</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>0.06117171957211652</v>
+      <c r="A110" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B110" t="n">
-        <v>0.06458644995329282</v>
+        <v>0.02241113836558783</v>
       </c>
       <c r="C110" t="n">
-        <v>0.03214817553400156</v>
+        <v>0.014791118190937074</v>
       </c>
       <c r="D110" t="n">
-        <v>0.011335664963778799</v>
+        <v>0.0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.005543311997230328</v>
+        <v>0.004613559073971253</v>
       </c>
       <c r="F110" t="n">
-        <v>0.008005920321042855</v>
+        <v>0.0062927267356077095</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.04940959972534798</v>
+        <v>0.036946791808610185</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.032526931443572896</v>
+        <v>0.014874421819107081</v>
       </c>
       <c r="D111" t="n">
-        <v>0.012539524846881873</v>
+        <v>0.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0056777988601633</v>
+        <v>0.004642796021490281</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>0.04889250619568948</v>
+      <c r="A112" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -2583,120 +2583,120 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0.070195302608103</v>
+      <c r="A113" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B113" t="n">
-        <v>0.07861586944663068</v>
+        <v>0.029191685388379768</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04411277197284788</v>
+        <v>0.018693880072456127</v>
       </c>
       <c r="D113" t="n">
-        <v>0.011026133636180779</v>
+        <v>0.0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0054526538927358705</v>
+        <v>0.004434377200791968</v>
       </c>
       <c r="F113" t="n">
-        <v>0.008905583604066092</v>
+        <v>0.007063570997644314</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.05583049269622896</v>
+        <v>0.034876959804853974</v>
       </c>
       <c r="B114" t="n">
-        <v>0.05753361693521126</v>
+        <v>0.022279169575638934</v>
       </c>
       <c r="C114" t="n">
-        <v>0.030931504036455212</v>
+        <v>0.01610506763254231</v>
       </c>
       <c r="D114" t="n">
-        <v>0.012001136478190585</v>
+        <v>0.0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.006031071204192847</v>
+        <v>0.004676994820256195</v>
       </c>
       <c r="F114" t="n">
-        <v>0.007987897125721358</v>
+        <v>0.006441590579109392</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.06163860425953968</v>
+        <v>0.03365191509789546</v>
       </c>
       <c r="B115" t="n">
-        <v>0.06802901565274962</v>
+        <v>0.021406144593967724</v>
       </c>
       <c r="C115" t="n">
-        <v>0.036781760424866757</v>
+        <v>0.014989646432380016</v>
       </c>
       <c r="D115" t="n">
-        <v>0.013112257423572988</v>
+        <v>0.0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0063490263711567995</v>
+        <v>0.004795608454625953</v>
       </c>
       <c r="F115" t="n">
-        <v>0.00813018078096327</v>
+        <v>0.006361457085509836</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.062112614838906996</v>
+        <v>0.035015366860230435</v>
       </c>
       <c r="B116" t="n">
-        <v>0.06100927196592214</v>
+        <v>0.02217870784633452</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0346840112793655</v>
+        <v>0.015544515180429295</v>
       </c>
       <c r="D116" t="n">
-        <v>0.011235050525067602</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.006337971667718252</v>
+        <v>0.004778848500107705</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00827536078578827</v>
+        <v>0.006467556262634293</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.06489513774362814</v>
+        <v>0.03506089000788559</v>
       </c>
       <c r="B117" t="n">
-        <v>0.06347113035647618</v>
+        <v>0.022219001881795014</v>
       </c>
       <c r="C117" t="n">
-        <v>0.03381605790149634</v>
+        <v>0.01546836237897613</v>
       </c>
       <c r="D117" t="n">
-        <v>0.014311293054353148</v>
+        <v>0.0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0058460626120235</v>
+        <v>0.004811061028906389</v>
       </c>
       <c r="F117" t="n">
-        <v>0.008226077626477053</v>
+        <v>0.00639342805837192</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.050977770519231067</v>
+        <v>0.03876740149099907</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0346603707484032</v>
+        <v>0.015216565429790298</v>
       </c>
       <c r="D118" t="n">
-        <v>0.013902403587216913</v>
+        <v>0.0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.005900333640341792</v>
+        <v>0.004830062260264534</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.05021051152992863</v>
+        <v>0.03696346375276631</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -2723,128 +2723,128 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>0.07147668976336273</v>
+      <c r="A120" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07809483273914689</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.04345697160161697</v>
+        <v>0.028682248129173766</v>
+      </c>
+      <c r="C120" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D120" t="n">
-        <v>0.014378862746479155</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.00589803486380985</v>
+        <v>0.0045556903404734865</v>
       </c>
       <c r="F120" t="n">
-        <v>0.008930641192930577</v>
+        <v>0.0071876283638723235</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.056533519740315924</v>
+        <v>0.03520304259336839</v>
       </c>
       <c r="B121" t="n">
-        <v>0.057874102249768335</v>
+        <v>0.022462756892642047</v>
       </c>
       <c r="C121" t="n">
-        <v>0.032467184433838094</v>
+        <v>0.015609875178853845</v>
       </c>
       <c r="D121" t="n">
-        <v>0.010966714714138816</v>
+        <v>0.0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.006211486164650888</v>
+        <v>0.004773757960107562</v>
       </c>
       <c r="F121" t="n">
-        <v>0.008155368195463414</v>
+        <v>0.006576708329091342</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>0.061411985849796284</v>
+      <c r="A122" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B122" t="n">
-        <v>0.06636546731261715</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.0348721064011239</v>
+        <v>0.022236263380857064</v>
+      </c>
+      <c r="C122" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D122" t="n">
-        <v>0.013680398721395141</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0064871846965617475</v>
+        <v>0.004924191085250583</v>
       </c>
       <c r="F122" t="n">
-        <v>0.008352356876633067</v>
+        <v>0.006576789754545267</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.06336612229099828</v>
+        <v>0.03490908594514228</v>
       </c>
       <c r="B123" t="n">
-        <v>0.06127445690444489</v>
+        <v>0.022728340832090407</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03417735660121175</v>
+        <v>0.015258506722860218</v>
       </c>
       <c r="D123" t="n">
-        <v>0.012802069338028979</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0059523062755743456</v>
+        <v>0.004821599081768496</v>
       </c>
       <c r="F123" t="n">
-        <v>0.008408392844458892</v>
+        <v>0.00653210861464188</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.07942913619235661</v>
+        <v>0.03508145822606422</v>
       </c>
       <c r="B124" t="n">
-        <v>0.06282949751243827</v>
+        <v>0.022942230238188588</v>
       </c>
       <c r="C124" t="n">
-        <v>0.03392448413758357</v>
+        <v>0.015108731391209065</v>
       </c>
       <c r="D124" t="n">
-        <v>0.010304490414867758</v>
+        <v>0.0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.006015958365929405</v>
+        <v>0.00488999849584102</v>
       </c>
       <c r="F124" t="n">
-        <v>0.008356369771152483</v>
+        <v>0.006523415048331394</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>0.051148092298932864</v>
+      <c r="A125" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
-      <c r="C125" t="n">
-        <v>0.03369683084865809</v>
+      <c r="C125" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D125" t="n">
-        <v>0.010812110775740631</v>
+        <v>0.0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0061002419857517235</v>
+        <v>0.0047693173623807195</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>0.05016329572470015</v>
+      <c r="A126" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -2863,120 +2863,120 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>0.07123148261975117</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.07712410271959655</v>
+      <c r="A127" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B127" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04412621539541435</v>
+        <v>0.01799403343740717</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0156748855025144</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0059786236407498245</v>
+        <v>0.004610444847170776</v>
       </c>
       <c r="F127" t="n">
-        <v>0.009033990215977603</v>
+        <v>0.007182484568938116</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>0.05674467963537797</v>
+      <c r="A128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B128" t="n">
-        <v>0.06057489519545248</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.03190777312551636</v>
+        <v>0.023024597329435313</v>
+      </c>
+      <c r="C128" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D128" t="n">
-        <v>0.014049714305006367</v>
+        <v>0.0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.006386901271776452</v>
+        <v>0.004724904853006426</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00818629408012057</v>
+        <v>0.0066050672199299085</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.06151010006455698</v>
+        <v>0.04734457395519269</v>
       </c>
       <c r="B129" t="n">
-        <v>0.06417911682970452</v>
+        <v>0.022681581155828818</v>
       </c>
       <c r="C129" t="n">
-        <v>0.03603032653470743</v>
+        <v>0.01453648930400907</v>
       </c>
       <c r="D129" t="n">
-        <v>0.013086075313550934</v>
+        <v>0.0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0064862700769491195</v>
+        <v>0.004861121963884061</v>
       </c>
       <c r="F129" t="n">
-        <v>0.00834839816993333</v>
+        <v>0.0065293797046366096</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.06339693438347652</v>
+        <v>0.03503925847351936</v>
       </c>
       <c r="B130" t="n">
-        <v>0.06499156198253697</v>
+        <v>0.022776954961586948</v>
       </c>
       <c r="C130" t="n">
-        <v>0.035213909885259166</v>
+        <v>0.01515400640549386</v>
       </c>
       <c r="D130" t="n">
-        <v>0.014457849557804698</v>
+        <v>0.0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0061716459266134335</v>
+        <v>0.004912730691749651</v>
       </c>
       <c r="F130" t="n">
-        <v>0.008468417933120441</v>
+        <v>0.006539963139742193</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.06478788146914749</v>
+        <v>0.03479163215826764</v>
       </c>
       <c r="B131" t="n">
-        <v>0.06325878770828992</v>
+        <v>0.023434302636715063</v>
       </c>
       <c r="C131" t="n">
-        <v>0.03487977083328846</v>
+        <v>0.014823065864100267</v>
       </c>
       <c r="D131" t="n">
-        <v>0.012720741294182892</v>
+        <v>0.0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.006083826835651476</v>
+        <v>0.004905284366001462</v>
       </c>
       <c r="F131" t="n">
-        <v>0.008480780192897386</v>
+        <v>0.006504722787353075</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>0.05135363948360873</v>
+      <c r="A132" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.03541839356277646</v>
+        <v>0.01472896985171286</v>
       </c>
       <c r="D132" t="n">
-        <v>0.012010252619152242</v>
+        <v>0.0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.006083650698264388</v>
+        <v>0.00475263612834315</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.050076076284387656</v>
+        <v>0.03713808423303912</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -3003,120 +3003,120 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>0.07232221398160403</v>
+      <c r="A134" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08160399496647067</v>
+        <v>0.029683626992168217</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04377140426100568</v>
+        <v>0.018130829206103174</v>
       </c>
       <c r="D134" t="n">
-        <v>0.013021385441669166</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.005645096752956591</v>
+        <v>0.0</v>
+      </c>
+      <c r="E134" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0091290814186053</v>
+        <v>0.007244213360105246</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0.05691006967380925</v>
+      <c r="A135" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05868252337890976</v>
+        <v>0.02229134022202655</v>
       </c>
       <c r="C135" t="n">
-        <v>0.031691476489089224</v>
+        <v>0.01557682369113151</v>
       </c>
       <c r="D135" t="n">
-        <v>0.010975151724561084</v>
+        <v>0.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.006138680704296066</v>
+        <v>0.004697847991884629</v>
       </c>
       <c r="F135" t="n">
-        <v>0.008283260396025468</v>
+        <v>0.0066667133962187665</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.06202597064606304</v>
+        <v>0.03454901133872904</v>
       </c>
       <c r="B136" t="n">
-        <v>0.06756509831239546</v>
+        <v>0.02274351219795342</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03530883632133557</v>
+        <v>0.014513250267616332</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01251371697099695</v>
+        <v>0.0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0062608531311710664</v>
+        <v>0.00485666344697754</v>
       </c>
       <c r="F136" t="n">
-        <v>0.008398936334534403</v>
+        <v>0.006590469194929411</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0.06303328203687351</v>
+      <c r="A137" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B137" t="n">
-        <v>0.06660109674051673</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.03545043209042623</v>
+        <v>0.022810675710075147</v>
+      </c>
+      <c r="C137" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D137" t="n">
-        <v>0.012102580609844522</v>
+        <v>0.0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.006105988406673297</v>
+        <v>0.004803161822982101</v>
       </c>
       <c r="F137" t="n">
-        <v>0.008446356756681744</v>
+        <v>0.006533599667069485</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>0.06477034224438913</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.0625823408540199</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.034647911897663586</v>
+      <c r="A138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C138" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D138" t="n">
-        <v>0.012607675200115381</v>
+        <v>0.0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0060834390532672825</v>
+        <v>0.004870308042203895</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0084453008212268</v>
+        <v>0.006478421094539148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.05078164858597897</v>
+        <v>0.04880110850550704</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.03507158871533449</v>
+        <v>0.014832446354621501</v>
       </c>
       <c r="D139" t="n">
-        <v>0.011898769842487507</v>
+        <v>0.0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.006151709016010772</v>
+        <v>0.004944521645562947</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.049993887888142526</v>
+        <v>0.03735467694759091</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -3143,94 +3143,94 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>0.07393691001587982</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.08096818861985207</v>
+      <c r="A141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B141" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04409286715560291</v>
+        <v>0.018023948100789333</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01376600410564265</v>
+        <v>0.0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.005987545047745439</v>
+        <v>0.004725825370857058</v>
       </c>
       <c r="F141" t="n">
-        <v>0.009161386426158597</v>
+        <v>0.007260531507994573</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.055969866593159</v>
+        <v>0.03525493781161226</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0576520130755751</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.032092250554805794</v>
+        <v>0.022661131455069837</v>
+      </c>
+      <c r="C142" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D142" t="n">
-        <v>0.013198747612630766</v>
+        <v>0.0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.006124776676034451</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.008236680837411192</v>
+        <v>0.004799032990096415</v>
+      </c>
+      <c r="F142" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.062153557856280836</v>
+        <v>0.03420554972029832</v>
       </c>
       <c r="B143" t="n">
-        <v>0.06811188284597287</v>
+        <v>0.02257472305589559</v>
       </c>
       <c r="C143" t="n">
-        <v>0.035021003624303174</v>
+        <v>0.014657839289811637</v>
       </c>
       <c r="D143" t="n">
-        <v>0.012712523786829287</v>
+        <v>0.0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0063086750825941396</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.00834799980589994</v>
+        <v>0.004908732914632552</v>
+      </c>
+      <c r="F143" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>0.06342471219845063</v>
+      <c r="A144" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B144" t="n">
-        <v>0.06329336628401758</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.03515472059255634</v>
+        <v>0.022918063653131145</v>
+      </c>
+      <c r="C144" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D144" t="n">
-        <v>0.011743703535234403</v>
+        <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.00622226111720038</v>
+        <v>0.0047646581867421284</v>
       </c>
       <c r="F144" t="n">
-        <v>0.008438912496284378</v>
+        <v>0.006554148913332897</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>0.0630783903627111</v>
+      <c r="A145" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B145" t="n">
-        <v>0.06352243355151445</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.035084779366932904</v>
+        <v>0.023183610589845065</v>
+      </c>
+      <c r="C145" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D145" t="n">
         <v>0.0</v>
@@ -3238,19 +3238,19 @@
       <c r="E145" t="n">
         <v>0.0</v>
       </c>
-      <c r="F145" t="n">
-        <v>0.008537635190797642</v>
+      <c r="F145" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>0.06044973588489276</v>
+      <c r="A146" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03531413315754293</v>
+        <v>0.014700987568678395</v>
       </c>
       <c r="D146" t="n">
         <v>0.0</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.051273268075254536</v>
+        <v>0.039659047811187786</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -3283,14 +3283,14 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>0.06926216188358382</v>
+      <c r="A148" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B148" t="n">
-        <v>0.08173209923517438</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.0436875532345011</v>
+        <v>0.02940987670205567</v>
+      </c>
+      <c r="C148" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D148" t="n">
         <v>0.0</v>
@@ -3299,15 +3299,15 @@
         <v>0.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.009179340330454375</v>
+        <v>0.007227545910167134</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>0.05285916643615378</v>
+      <c r="A149" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B149" t="n">
-        <v>0.060204222929115224</v>
+        <v>0.022115787644185262</v>
       </c>
       <c r="C149" t="n">
         <v>0.0</v>
@@ -3319,15 +3319,15 @@
         <v>0.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.008319841865170013</v>
+        <v>0.00665452873155776</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>0.06011722627426479</v>
+      <c r="A150" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B150" t="n">
-        <v>0.06814718966645332</v>
+        <v>0.022398687199895625</v>
       </c>
       <c r="C150" t="n">
         <v>0.0</v>
@@ -3338,16 +3338,16 @@
       <c r="E150" t="n">
         <v>0.0</v>
       </c>
-      <c r="F150" t="n">
-        <v>0.00839644116281386</v>
+      <c r="F150" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.058772657304144285</v>
+        <v>0.036030456246391285</v>
       </c>
       <c r="B151" t="n">
-        <v>0.06276902833774999</v>
+        <v>0.023200895499097412</v>
       </c>
       <c r="C151" t="n">
         <v>0.0</v>
@@ -3359,15 +3359,15 @@
         <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.008520890322869693</v>
+        <v>0.0065676896561728685</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.057007228415789854</v>
+        <v>0.03483246685876416</v>
       </c>
       <c r="B152" t="n">
-        <v>0.06752788191460216</v>
+        <v>0.02324264402797198</v>
       </c>
       <c r="C152" t="n">
         <v>0.0</v>
@@ -3379,12 +3379,12 @@
         <v>0.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.008524115435437997</v>
+        <v>0.006521252343718918</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.0429385593645146</v>
+        <v>0.03879792304567567</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -3403,8 +3403,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>0.04489075544358494</v>
+      <c r="A154" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -3423,8 +3423,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>0.04633134765159128</v>
+      <c r="A155" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -3443,8 +3443,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>0.03776068634223947</v>
+      <c r="A156" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -3463,8 +3463,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>0.03616076760898182</v>
+      <c r="A157" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.047163633233823325</v>
+        <v>0.030607163376508373</v>
       </c>
       <c r="B158" t="n">
-        <v>0.08152312686918765</v>
+        <v>0.028455277583723126</v>
       </c>
       <c r="C158" t="n">
-        <v>0.03521547036003015</v>
+        <v>0.015842096022126648</v>
       </c>
       <c r="D158" t="n">
         <v>0.0</v>
@@ -3499,18 +3499,18 @@
         <v>0.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00874189468194341</v>
+        <v>0.0073289374377083</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.0367222291518824</v>
+        <v>0.03294901122763702</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05282405879455733</v>
+        <v>0.025564488782267056</v>
       </c>
       <c r="C159" t="n">
-        <v>0.025652953681373613</v>
+        <v>0.015748117939021075</v>
       </c>
       <c r="D159" t="n">
         <v>0.0</v>
@@ -3519,12 +3519,12 @@
         <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.007864379057514774</v>
+        <v>0.006908771752742812</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.037793450144965206</v>
+        <v>0.03493164690656825</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -3543,8 +3543,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>0.05026451621691289</v>
+      <c r="A161" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.062227247521574165</v>
+        <v>0.0351600481903636</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07678915318231204</v>
+        <v>0.028201594625436432</v>
       </c>
       <c r="C162" t="n">
         <v>0.0</v>
@@ -3579,15 +3579,15 @@
         <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.008856243693456166</v>
+        <v>0.006559193018288493</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.05193120357628293</v>
+        <v>0.04506719500869873</v>
       </c>
       <c r="B163" t="n">
-        <v>0.05336452372315113</v>
+        <v>0.0269413430783935</v>
       </c>
       <c r="C163" t="n">
         <v>0.0</v>
@@ -3599,18 +3599,18 @@
         <v>0.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00811969935391385</v>
+        <v>0.0066261002326463555</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.0580722843005743</v>
+        <v>0.037917263542520355</v>
       </c>
       <c r="B164" t="n">
-        <v>0.06427522886343563</v>
+        <v>0.026067254264243597</v>
       </c>
       <c r="C164" t="n">
-        <v>0.03949759106193652</v>
+        <v>0.019520930695863005</v>
       </c>
       <c r="D164" t="n">
         <v>0.0</v>
@@ -3619,38 +3619,38 @@
         <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.008345567694517157</v>
+        <v>0.006728449797157699</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.05577060339252501</v>
+        <v>0.03803408265505564</v>
       </c>
       <c r="B165" t="n">
-        <v>0.06070115421390694</v>
+        <v>0.026179856511219405</v>
       </c>
       <c r="C165" t="n">
-        <v>0.026281449530861596</v>
+        <v>0.01712580694205264</v>
       </c>
       <c r="D165" t="n">
-        <v>0.011365608167738274</v>
+        <v>0.0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.006020969044448842</v>
+        <v>0.004749881500902752</v>
       </c>
       <c r="F165" t="n">
-        <v>0.008410949847931734</v>
+        <v>0.006849650183551422</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.060110479028919715</v>
+        <v>0.04010559983424825</v>
       </c>
       <c r="B166" t="n">
-        <v>0.06411036464046309</v>
+        <v>0.02726094568027866</v>
       </c>
       <c r="C166" t="n">
-        <v>0.03292424016707016</v>
+        <v>0.016392877149214703</v>
       </c>
       <c r="D166" t="n">
         <v>0.0</v>
@@ -3659,18 +3659,18 @@
         <v>0.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.008395839057558627</v>
+        <v>0.00720951386783112</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.047294286201409026</v>
+        <v>0.053195788836404856</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.030187130773568605</v>
+        <v>0.017379229822618206</v>
       </c>
       <c r="D167" t="n">
         <v>0.0</v>
@@ -3683,8 +3683,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>0.04928116618131559</v>
+      <c r="A168" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -3703,34 +3703,34 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>0.0696898317893341</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.07742026478741909</v>
+      <c r="A169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B169" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04339020417859741</v>
+        <v>0.020547548928656144</v>
       </c>
       <c r="D169" t="n">
-        <v>0.013611036894715222</v>
+        <v>0.0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.005862779877738118</v>
+        <v>0.005031297317071788</v>
       </c>
       <c r="F169" t="n">
-        <v>0.009244157572959705</v>
+        <v>0.007721266924904108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.05443605591300356</v>
+        <v>0.040897993918349446</v>
       </c>
       <c r="B170" t="n">
-        <v>0.06015164662696623</v>
+        <v>0.029079313107820446</v>
       </c>
       <c r="C170" t="n">
-        <v>0.03153788509215212</v>
+        <v>0.020276453768097592</v>
       </c>
       <c r="D170" t="n">
         <v>0.0</v>
@@ -3739,18 +3739,18 @@
         <v>0.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.008295231314999157</v>
+        <v>0.007566133779697534</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.059447291984221905</v>
+        <v>0.041215576817023994</v>
       </c>
       <c r="B171" t="n">
-        <v>0.06617423602662449</v>
+        <v>0.028010405997118803</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0363397366386696</v>
+        <v>0.019279435580585782</v>
       </c>
       <c r="D171" t="n">
         <v>0.0</v>
@@ -3759,18 +3759,18 @@
         <v>0.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00854072628046124</v>
+        <v>0.007521682323204276</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.06263285263274432</v>
+        <v>0.041640182541254525</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06460266804957583</v>
+        <v>0.02735321316684926</v>
       </c>
       <c r="C172" t="n">
-        <v>0.03477518980558116</v>
+        <v>0.019407261637329504</v>
       </c>
       <c r="D172" t="n">
         <v>0.0</v>
@@ -3779,38 +3779,38 @@
         <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.008436170763025112</v>
+        <v>0.007492558374668814</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.06465867213750932</v>
+        <v>0.04221336460431808</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06527802397766869</v>
+        <v>0.027543263691643644</v>
       </c>
       <c r="C173" t="n">
-        <v>0.03391932348701127</v>
+        <v>0.019575434335083103</v>
       </c>
       <c r="D173" t="n">
-        <v>0.012267395617051811</v>
+        <v>0.0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.005798338932595946</v>
+        <v>0.0056534856536179</v>
       </c>
       <c r="F173" t="n">
-        <v>0.008343630094372646</v>
+        <v>0.0075470753026177844</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>0.049715639479490724</v>
+      <c r="A174" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.03501260914857676</v>
+        <v>0.019297265525189154</v>
       </c>
       <c r="D174" t="n">
         <v>0.0</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.049703207580299155</v>
+        <v>0.04245908712277334</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -3843,14 +3843,14 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>0.0698718437885874</v>
+      <c r="A176" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B176" t="n">
-        <v>0.08417716796002016</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.04381018526606138</v>
+        <v>0.032220231816709424</v>
+      </c>
+      <c r="C176" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D176" t="n">
         <v>0.0</v>
@@ -3859,38 +3859,38 @@
         <v>0.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00924933769322505</v>
+        <v>0.007945666080819166</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.056418418622803126</v>
+        <v>0.04188418255799844</v>
       </c>
       <c r="B177" t="n">
-        <v>0.057524159057747506</v>
+        <v>0.029079754816563805</v>
       </c>
       <c r="C177" t="n">
-        <v>0.031050608822067022</v>
+        <v>0.020441185647933235</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01139541046205839</v>
+        <v>0.0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.005838639249413051</v>
+        <v>0.005618368602242658</v>
       </c>
       <c r="F177" t="n">
-        <v>0.00834703203158997</v>
+        <v>0.007761120360312418</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>0.06028961178856438</v>
+      <c r="A178" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B178" t="n">
-        <v>0.06722530220478429</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.036941377492862096</v>
+        <v>0.028284186731242618</v>
+      </c>
+      <c r="C178" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D178" t="n">
         <v>0.0</v>
@@ -3899,18 +3899,18 @@
         <v>0.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.008564780111458795</v>
+        <v>0.007674293849178671</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>0.06168622888401344</v>
+      <c r="A179" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B179" t="n">
-        <v>0.06411429212447715</v>
+        <v>0.027698371282735806</v>
       </c>
       <c r="C179" t="n">
-        <v>0.034123918915147745</v>
+        <v>0.019150201871522488</v>
       </c>
       <c r="D179" t="n">
         <v>0.0</v>
@@ -3919,18 +3919,18 @@
         <v>0.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.008565688458957072</v>
+        <v>0.0076777310555279</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>0.06436381737651288</v>
+      <c r="A180" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B180" t="n">
-        <v>0.06353709400303485</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.036313536838420965</v>
+        <v>0.028794478333239632</v>
+      </c>
+      <c r="C180" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D180" t="n">
         <v>0.0</v>
@@ -3939,32 +3939,32 @@
         <v>0.0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.008421331335140485</v>
+        <v>0.007737569173580084</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.05053868494769983</v>
+        <v>0.04728731361045875</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.03580155016169984</v>
+        <v>0.01879418050674295</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01448024427099665</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0059439304288824105</v>
+        <v>0.005568012186621444</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>0.05026422519611881</v>
+      <c r="A182" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -3984,13 +3984,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.07038806432863558</v>
+        <v>0.04261258073709575</v>
       </c>
       <c r="B183" t="n">
-        <v>0.07704530810797616</v>
+        <v>0.03348402496070373</v>
       </c>
       <c r="C183" t="n">
-        <v>0.04534741196957915</v>
+        <v>0.020507172767673446</v>
       </c>
       <c r="D183" t="n">
         <v>0.0</v>
@@ -3999,18 +3999,18 @@
         <v>0.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.009274504850157123</v>
+        <v>0.00794513968828726</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.05544634364526445</v>
+        <v>0.0419111366385726</v>
       </c>
       <c r="B184" t="n">
-        <v>0.060535886032208254</v>
+        <v>0.030623511697787705</v>
       </c>
       <c r="C184" t="n">
-        <v>0.03069811210196389</v>
+        <v>0.019737907617780666</v>
       </c>
       <c r="D184" t="n">
         <v>0.0</v>
@@ -4019,18 +4019,18 @@
         <v>0.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.008298564455934852</v>
+        <v>0.007755889533235206</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.06150134827088759</v>
+        <v>0.04155761768570695</v>
       </c>
       <c r="B185" t="n">
-        <v>0.06897168136692036</v>
+        <v>0.028815025670151564</v>
       </c>
       <c r="C185" t="n">
-        <v>0.03595973109157959</v>
+        <v>0.019095625393696573</v>
       </c>
       <c r="D185" t="n">
         <v>0.0</v>
@@ -4039,18 +4039,18 @@
         <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.008481227556604687</v>
+        <v>0.007673530736655887</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.06281020878815845</v>
+        <v>0.04198869625679678</v>
       </c>
       <c r="B186" t="n">
-        <v>0.06344275914122081</v>
+        <v>0.02867470028627112</v>
       </c>
       <c r="C186" t="n">
-        <v>0.03595853819605216</v>
+        <v>0.018614250376129755</v>
       </c>
       <c r="D186" t="n">
         <v>0.0</v>
@@ -4059,18 +4059,18 @@
         <v>0.0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.008561317371153876</v>
+        <v>0.007671352940830502</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>0.06472308756770505</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.06814030717845325</v>
+      <c r="A187" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B187" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C187" t="n">
-        <v>0.03504822927162172</v>
+        <v>0.020205879046819027</v>
       </c>
       <c r="D187" t="n">
         <v>0.0</v>
@@ -4079,18 +4079,18 @@
         <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.008546682783679564</v>
+        <v>0.00814168823252556</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.05060235263056616</v>
+        <v>0.05946360053582719</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.034685043292950093</v>
+        <v>0.020273634531165294</v>
       </c>
       <c r="D188" t="n">
         <v>0.0</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.051463716692979736</v>
+        <v>0.04492556995904162</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -4124,13 +4124,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.07163165210635776</v>
+        <v>0.044386308548840785</v>
       </c>
       <c r="B190" t="n">
-        <v>0.08072946474479764</v>
+        <v>0.035107304126881546</v>
       </c>
       <c r="C190" t="n">
-        <v>0.04216504275914308</v>
+        <v>0.020872193282455296</v>
       </c>
       <c r="D190" t="n">
         <v>0.0</v>
@@ -4139,18 +4139,18 @@
         <v>0.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00912501826006576</v>
+        <v>0.008564173441940472</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>0.056488335844441115</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.05807496634784289</v>
+      <c r="A191" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B191" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C191" t="n">
-        <v>0.03295092803832752</v>
+        <v>0.020221667949234627</v>
       </c>
       <c r="D191" t="n">
         <v>0.0</v>
@@ -4159,18 +4159,18 @@
         <v>0.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.008272044563416198</v>
+        <v>0.008139437562739752</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.06239024805659784</v>
+        <v>0.04296145985715805</v>
       </c>
       <c r="B192" t="n">
-        <v>0.06702859627781256</v>
+        <v>0.030924331360440916</v>
       </c>
       <c r="C192" t="n">
-        <v>0.03703118715776789</v>
+        <v>0.019328734310484</v>
       </c>
       <c r="D192" t="n">
         <v>0.0</v>
@@ -4179,18 +4179,18 @@
         <v>0.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.008477648826078689</v>
+        <v>0.007947321491686006</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>0.0631101555263448</v>
+      <c r="A193" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0630270606320566</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.03631502766605773</v>
+        <v>0.031093779252739616</v>
+      </c>
+      <c r="C193" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D193" t="n">
         <v>0.0</v>
@@ -4199,18 +4199,18 @@
         <v>0.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.008501322321873613</v>
+        <v>0.007785449330029055</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.07642380458416666</v>
+        <v>0.0436147276514695</v>
       </c>
       <c r="B194" t="n">
-        <v>0.06602934383032871</v>
+        <v>0.03043142724984513</v>
       </c>
       <c r="C194" t="n">
-        <v>0.035257131645635965</v>
+        <v>0.01916850965524169</v>
       </c>
       <c r="D194" t="n">
         <v>0.0</v>
@@ -4219,18 +4219,18 @@
         <v>0.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.008545860664434746</v>
+        <v>0.007805952166684924</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.050579805894446904</v>
+        <v>0.0482814255381127</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.035128282446912316</v>
+        <v>0.01878917225555914</v>
       </c>
       <c r="D195" t="n">
         <v>0.0</v>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>0.05138747124540839</v>
+      <c r="A196" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -4263,128 +4263,128 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>0.07292777417284178</v>
+      <c r="A197" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B197" t="n">
-        <v>0.08039374500735817</v>
+        <v>0.030654311184380924</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04562483434654327</v>
+        <v>0.01884415709982122</v>
       </c>
       <c r="D197" t="n">
-        <v>0.011803519568929234</v>
+        <v>0.0</v>
       </c>
       <c r="E197" t="n">
-        <v>0.006036190940209311</v>
+        <v>0.005366617881871187</v>
       </c>
       <c r="F197" t="n">
-        <v>0.009225791266194952</v>
+        <v>0.007756853253255954</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.057720848450982104</v>
+        <v>0.039504750205491684</v>
       </c>
       <c r="B198" t="n">
-        <v>0.058540571656191386</v>
+        <v>0.02954800368903864</v>
       </c>
       <c r="C198" t="n">
-        <v>0.03245193895836531</v>
+        <v>0.01903092611094323</v>
       </c>
       <c r="D198" t="n">
-        <v>0.013351665749002525</v>
+        <v>0.0</v>
       </c>
       <c r="E198" t="n">
-        <v>0.006298757919747631</v>
+        <v>0.00535826349367514</v>
       </c>
       <c r="F198" t="n">
-        <v>0.008250642250899451</v>
+        <v>0.007569448151540885</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.0635856449344744</v>
+        <v>0.04001412778851498</v>
       </c>
       <c r="B199" t="n">
-        <v>0.06718897874903518</v>
+        <v>0.02961240157538783</v>
       </c>
       <c r="C199" t="n">
-        <v>0.03603925497232711</v>
+        <v>0.01858275231155894</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01245738915897624</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>0.006139480348738124</v>
+        <v>0.00561113376570617</v>
       </c>
       <c r="F199" t="n">
-        <v>0.008457785195984606</v>
+        <v>0.007580281308352785</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.06535183862874289</v>
+        <v>0.04141702567863171</v>
       </c>
       <c r="B200" t="n">
-        <v>0.06562181788789523</v>
+        <v>0.03024641597098315</v>
       </c>
       <c r="C200" t="n">
-        <v>0.03636886909566013</v>
+        <v>0.01871056235086563</v>
       </c>
       <c r="D200" t="n">
-        <v>0.014557646846690035</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.006443402294262829</v>
+        <v>0.005497538762948742</v>
       </c>
       <c r="F200" t="n">
-        <v>0.008374537507875484</v>
+        <v>0.007578636346485867</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>0.0661696872299658</v>
+      <c r="A201" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B201" t="n">
-        <v>0.061352029823204576</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.03441971314522344</v>
+        <v>0.029628839254980437</v>
+      </c>
+      <c r="C201" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D201" t="n">
-        <v>0.01389079531102608</v>
+        <v>0.0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.006058018405180856</v>
+        <v>0.0054493002372306785</v>
       </c>
       <c r="F201" t="n">
-        <v>0.008422300841279925</v>
+        <v>0.007720440580185819</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.05180233916671979</v>
+        <v>0.04757941439861291</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>0.03404273332689305</v>
+        <v>0.01839734566170487</v>
       </c>
       <c r="D202" t="n">
-        <v>0.012896952079809438</v>
+        <v>0.0</v>
       </c>
       <c r="E202" t="n">
-        <v>0.005738794773496336</v>
+        <v>0.005538654036033401</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>0.05070020343753335</v>
+      <c r="A203" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -4404,87 +4404,87 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.07204875280144875</v>
+        <v>0.03854314396182681</v>
       </c>
       <c r="B204" t="n">
-        <v>0.07835562478460739</v>
+        <v>0.032080965751332347</v>
       </c>
       <c r="C204" t="n">
-        <v>0.04236677063237885</v>
+        <v>0.01859638653493504</v>
       </c>
       <c r="D204" t="n">
-        <v>0.012764104294814869</v>
+        <v>0.0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.00606579139489284</v>
+        <v>0.005705024438418662</v>
       </c>
       <c r="F204" t="n">
-        <v>0.009223547091806962</v>
+        <v>0.007662487337061435</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>0.05715910253768699</v>
+      <c r="A205" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B205" t="n">
-        <v>0.05922000578377303</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.03288161616753188</v>
+        <v>0.030212542023126943</v>
+      </c>
+      <c r="C205" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D205" t="n">
-        <v>0.012058551265169137</v>
+        <v>0.0</v>
       </c>
       <c r="E205" t="n">
-        <v>0.006055638200590364</v>
+        <v>0.005537281907666295</v>
       </c>
       <c r="F205" t="n">
-        <v>0.008387016471640047</v>
+        <v>0.0074934502441433015</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.06246262632972492</v>
+        <v>0.03969322091852175</v>
       </c>
       <c r="B206" t="n">
-        <v>0.06759594992690139</v>
+        <v>0.02940337924398941</v>
       </c>
       <c r="C206" t="n">
-        <v>0.03492112852135933</v>
+        <v>0.01839772567437912</v>
       </c>
       <c r="D206" t="n">
-        <v>0.01590110529773531</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>0.006547137623661383</v>
+        <v>0.005450396004062541</v>
       </c>
       <c r="F206" t="n">
-        <v>0.008522075365185079</v>
+        <v>0.00752487891286583</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.06312302566928539</v>
+        <v>0.041223131329122226</v>
       </c>
       <c r="B207" t="n">
-        <v>0.06269031666475408</v>
+        <v>0.02937247700561119</v>
       </c>
       <c r="C207" t="n">
-        <v>0.033513911851368657</v>
+        <v>0.018614468395218495</v>
       </c>
       <c r="D207" t="n">
-        <v>0.012846855295575076</v>
+        <v>0.0</v>
       </c>
       <c r="E207" t="n">
-        <v>0.00602282989445291</v>
+        <v>0.0054621119403643155</v>
       </c>
       <c r="F207" t="n">
-        <v>0.008459227627392304</v>
+        <v>0.007588401029062021</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.04468903491237386</v>
+        <v>0.039736919427961266</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -4504,19 +4504,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.05673843623519965</v>
+        <v>0.044243932481890444</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>0.04398520607913486</v>
+        <v>0.01813501947016722</v>
       </c>
       <c r="D209" t="n">
-        <v>0.013154504323529612</v>
+        <v>0.0</v>
       </c>
       <c r="E209" t="n">
-        <v>0.006060669647388801</v>
+        <v>0.00565034441046561</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.04532872926935355</v>
+        <v>0.034238194351911486</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -4543,128 +4543,128 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>0.06838374185703772</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.08177712391819235</v>
+      <c r="A211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B211" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C211" t="n">
-        <v>0.044944242709724316</v>
+        <v>0.01755445658457297</v>
       </c>
       <c r="D211" t="n">
-        <v>0.012882908669636947</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.00631131189867674</v>
+        <v>0.005482220059105215</v>
       </c>
       <c r="F211" t="n">
-        <v>0.009140588819679331</v>
+        <v>0.007365650311848099</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.05256281900383381</v>
+        <v>0.036150013103224916</v>
       </c>
       <c r="B212" t="n">
-        <v>0.05762521781595987</v>
+        <v>0.02836283192119246</v>
       </c>
       <c r="C212" t="n">
-        <v>0.030964818241390895</v>
+        <v>0.018080904552366474</v>
       </c>
       <c r="D212" t="n">
-        <v>0.012288402509250266</v>
+        <v>0.0</v>
       </c>
       <c r="E212" t="n">
-        <v>0.006196076710916583</v>
+        <v>0.00537732003975388</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00818313676332368</v>
+        <v>0.007218866089401793</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.06012585878817377</v>
+        <v>0.03727236667736751</v>
       </c>
       <c r="B213" t="n">
-        <v>0.06448840767772149</v>
+        <v>0.027117811790611273</v>
       </c>
       <c r="C213" t="n">
-        <v>0.035672793036964565</v>
+        <v>0.017816278116900855</v>
       </c>
       <c r="D213" t="n">
-        <v>0.01259444506209965</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.006289488209192122</v>
+        <v>0.005148098596980682</v>
       </c>
       <c r="F213" t="n">
-        <v>0.00814186281947053</v>
+        <v>0.007205481898389494</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.06341795149340472</v>
+        <v>0.03997459587801748</v>
       </c>
       <c r="B214" t="n">
-        <v>0.06096319666201949</v>
+        <v>0.028028983875292433</v>
       </c>
       <c r="C214" t="n">
-        <v>0.03422941349057728</v>
+        <v>0.01819800555241165</v>
       </c>
       <c r="D214" t="n">
-        <v>0.012699480500020115</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.0060758029148584615</v>
+        <v>0.005090813315856683</v>
       </c>
       <c r="F214" t="n">
-        <v>0.008358681179100814</v>
+        <v>0.0073287245155930335</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.06627710837750517</v>
+        <v>0.034561483783525894</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0635766570403079</v>
+        <v>0.02344443751934186</v>
       </c>
       <c r="C215" t="n">
-        <v>0.03445682897016172</v>
+        <v>0.01562293590058829</v>
       </c>
       <c r="D215" t="n">
-        <v>0.014767366454860278</v>
+        <v>0.0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.006016334371491344</v>
+        <v>0.004642010433583224</v>
       </c>
       <c r="F215" t="n">
-        <v>0.008264420283230422</v>
+        <v>0.006626764495235451</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>0.05214436269240987</v>
+      <c r="A216" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0343583648076895</v>
+        <v>0.014928145046913293</v>
       </c>
       <c r="D216" t="n">
-        <v>0.013395652927087932</v>
+        <v>0.0</v>
       </c>
       <c r="E216" t="n">
-        <v>0.005664229431914609</v>
+        <v>0.004470685581157581</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>0.050674301406434634</v>
+      <c r="A217" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -4684,67 +4684,67 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.07250231387479694</v>
+        <v>0.036521922790371183</v>
       </c>
       <c r="B218" t="n">
-        <v>0.07946662139062169</v>
+        <v>0.027247595349960296</v>
       </c>
       <c r="C218" t="n">
-        <v>0.042635901256838374</v>
+        <v>0.017147378360837403</v>
       </c>
       <c r="D218" t="n">
-        <v>0.012917832831005064</v>
+        <v>0.0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.005942605566109433</v>
+        <v>0.004348298359813851</v>
       </c>
       <c r="F218" t="n">
-        <v>0.008920514222044656</v>
+        <v>0.006825932826743362</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.05700158627809337</v>
+        <v>0.03583587541891103</v>
       </c>
       <c r="B219" t="n">
-        <v>0.05900479032619363</v>
+        <v>0.024728568924314135</v>
       </c>
       <c r="C219" t="n">
-        <v>0.030414890823296396</v>
+        <v>0.016394154820672253</v>
       </c>
       <c r="D219" t="n">
-        <v>0.013105949084370459</v>
+        <v>0.0</v>
       </c>
       <c r="E219" t="n">
-        <v>0.005993245457197783</v>
+        <v>0.004768329489730987</v>
       </c>
       <c r="F219" t="n">
-        <v>0.008203940472269291</v>
+        <v>0.006651076426239096</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.06264090871318431</v>
+        <v>0.03340514333317655</v>
       </c>
       <c r="B220" t="n">
-        <v>0.06429331754228948</v>
+        <v>0.02504496551718644</v>
       </c>
       <c r="C220" t="n">
-        <v>0.03571847277597201</v>
+        <v>0.01591766446659692</v>
       </c>
       <c r="D220" t="n">
-        <v>0.01536457709725525</v>
+        <v>0.0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.006341299754419599</v>
+        <v>0.004969086552668061</v>
       </c>
       <c r="F220" t="n">
-        <v>0.008347064188708666</v>
+        <v>0.006905377738196522</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>0.043612176823125404</v>
+      <c r="A221" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -4764,39 +4764,39 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.07339156239742829</v>
+        <v>0.037771820958038924</v>
       </c>
       <c r="B222" t="n">
-        <v>0.08435566844004452</v>
+        <v>0.027748678674042702</v>
       </c>
       <c r="C222" t="n">
-        <v>0.04354027545774214</v>
+        <v>0.017728012638167066</v>
       </c>
       <c r="D222" t="n">
-        <v>0.014955427532990964</v>
+        <v>0.0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.006264141560800653</v>
+        <v>0.004998936571593493</v>
       </c>
       <c r="F222" t="n">
-        <v>0.009023074996321729</v>
+        <v>0.007358069648267533</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.045517271180430946</v>
+        <v>0.04117243075545212</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>0.02938281715077077</v>
+        <v>0.0165674546351956</v>
       </c>
       <c r="D223" t="n">
-        <v>0.014089555345202712</v>
+        <v>0.0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0060290912661094855</v>
+        <v>0.005244884485584728</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.04813410663048078</v>
+        <v>0.03606045411973419</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
@@ -4824,119 +4824,119 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.06927492338989741</v>
+        <v>0.03813716461761943</v>
       </c>
       <c r="B225" t="n">
-        <v>0.07908151220744129</v>
+        <v>0.02983088111798225</v>
       </c>
       <c r="C225" t="n">
-        <v>0.04253106811702379</v>
+        <v>0.01793164238153521</v>
       </c>
       <c r="D225" t="n">
-        <v>0.015675657471149653</v>
+        <v>0.0</v>
       </c>
       <c r="E225" t="n">
-        <v>0.005821425573649694</v>
+        <v>0.0051158563855321195</v>
       </c>
       <c r="F225" t="n">
-        <v>0.009008809947745977</v>
+        <v>0.007545065466879414</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.05325841628606128</v>
+        <v>0.03586960703009805</v>
       </c>
       <c r="B226" t="n">
-        <v>0.05679412836421772</v>
+        <v>0.024464614777062223</v>
       </c>
       <c r="C226" t="n">
-        <v>0.029633300742132447</v>
+        <v>0.016629328456087705</v>
       </c>
       <c r="D226" t="n">
-        <v>0.011297143508684769</v>
+        <v>0.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0060236258308205065</v>
+        <v>0.004990470302895419</v>
       </c>
       <c r="F226" t="n">
-        <v>0.007809186539977762</v>
+        <v>0.006999999090436105</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.06056463929185388</v>
+        <v>0.03543270745405335</v>
       </c>
       <c r="B227" t="n">
-        <v>0.06376698470361039</v>
+        <v>0.024481214320551746</v>
       </c>
       <c r="C227" t="n">
-        <v>0.03516197072345564</v>
+        <v>0.0155438499713519</v>
       </c>
       <c r="D227" t="n">
-        <v>0.01214362734616463</v>
+        <v>0.0</v>
       </c>
       <c r="E227" t="n">
-        <v>0.00590308532939464</v>
+        <v>0.005053226882222883</v>
       </c>
       <c r="F227" t="n">
-        <v>0.008048151348305277</v>
+        <v>0.006941185468687119</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.06323524431411362</v>
+        <v>0.03708014012880384</v>
       </c>
       <c r="B228" t="n">
-        <v>0.06315979182013656</v>
+        <v>0.02483322580325033</v>
       </c>
       <c r="C228" t="n">
-        <v>0.032404365529897956</v>
+        <v>0.016128545844789312</v>
       </c>
       <c r="D228" t="n">
-        <v>0.012869192722147036</v>
+        <v>0.0</v>
       </c>
       <c r="E228" t="n">
-        <v>0.005958201591038124</v>
+        <v>0.0048882448757076695</v>
       </c>
       <c r="F228" t="n">
-        <v>0.008176760805565219</v>
+        <v>0.0069655253205024295</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>0.06417010178081646</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0.06291226264203392</v>
+      <c r="A229" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B229" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C229" t="n">
-        <v>0.032911937696783584</v>
+        <v>0.0156303316048499</v>
       </c>
       <c r="D229" t="n">
-        <v>0.011559197919369978</v>
+        <v>0.0</v>
       </c>
       <c r="E229" t="n">
-        <v>0.005838955192789153</v>
+        <v>0.004870976646670275</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00820770973629291</v>
+        <v>0.006907984205748054</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.0504703332425971</v>
+        <v>0.04174176790363554</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>0.03272457545161617</v>
+        <v>0.01588104784179951</v>
       </c>
       <c r="D230" t="n">
-        <v>0.012154186816639712</v>
+        <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.005687304653858359</v>
+        <v>0.004930057662745189</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.04894216352853197</v>
+        <v>0.0384725813180665</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -4964,107 +4964,107 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.06958417307209713</v>
+        <v>0.03948617561265745</v>
       </c>
       <c r="B232" t="n">
-        <v>0.07691221697103198</v>
+        <v>0.02897960267295031</v>
       </c>
       <c r="C232" t="n">
-        <v>0.04129052103940439</v>
+        <v>0.017877597999219626</v>
       </c>
       <c r="D232" t="n">
-        <v>0.013463811985735229</v>
+        <v>0.0</v>
       </c>
       <c r="E232" t="n">
-        <v>0.005625226023692516</v>
+        <v>0.004897145571375259</v>
       </c>
       <c r="F232" t="n">
-        <v>0.008765758248320809</v>
+        <v>0.007421996817956539</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.05529649205310749</v>
+        <v>0.03702099287656191</v>
       </c>
       <c r="B233" t="n">
-        <v>0.05734323725222651</v>
+        <v>0.02488537160088781</v>
       </c>
       <c r="C233" t="n">
-        <v>0.03064092629905176</v>
+        <v>0.01645823842413991</v>
       </c>
       <c r="D233" t="n">
-        <v>0.011282491168188226</v>
+        <v>0.0</v>
       </c>
       <c r="E233" t="n">
-        <v>0.005826752084092806</v>
+        <v>0.004988555754986012</v>
       </c>
       <c r="F233" t="n">
-        <v>0.007903244339728447</v>
+        <v>0.006962335963326597</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.059871210878909294</v>
+        <v>0.036220669484131815</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0634950987708016</v>
+        <v>0.024552191636802046</v>
       </c>
       <c r="C234" t="n">
-        <v>0.03401917444688919</v>
+        <v>0.015590529340035809</v>
       </c>
       <c r="D234" t="n">
-        <v>0.01181293499751381</v>
+        <v>0.0</v>
       </c>
       <c r="E234" t="n">
-        <v>0.005976689660317706</v>
+        <v>0.005057665841919325</v>
       </c>
       <c r="F234" t="n">
-        <v>0.008086652211571437</v>
+        <v>0.006886019897718696</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.0589221773508149</v>
+        <v>0.037918430291756566</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0634593576818497</v>
+        <v>0.024490331197664094</v>
       </c>
       <c r="C235" t="n">
         <v>0.0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.013039634312229764</v>
+        <v>0.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.006006816528886161</v>
+        <v>0.00502280242422942</v>
       </c>
       <c r="F235" t="n">
-        <v>0.008099791626791824</v>
+        <v>0.00688177726397314</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.06284647638386814</v>
+        <v>0.03849661493036855</v>
       </c>
       <c r="B236" t="n">
-        <v>0.06308685265595217</v>
+        <v>0.024528391081860442</v>
       </c>
       <c r="C236" t="n">
         <v>0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.011975825319787308</v>
+        <v>0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.0059759008484127595</v>
+        <v>0.005000829899488873</v>
       </c>
       <c r="F236" t="n">
-        <v>0.008022234599285185</v>
+        <v>0.006880579199842414</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>0.045628002200710234</v>
+      <c r="A237" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -5073,10 +5073,10 @@
         <v>0.0</v>
       </c>
       <c r="D237" t="n">
-        <v>0.011067107387679792</v>
+        <v>0.0</v>
       </c>
       <c r="E237" t="n">
-        <v>0.005726947402340978</v>
+        <v>0.004933136518201529</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.045531574248463144</v>
+        <v>0.03694193586381748</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -5104,107 +5104,107 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.05885886650139009</v>
+        <v>0.03764450199606305</v>
       </c>
       <c r="B239" t="n">
-        <v>0.07680511821949335</v>
+        <v>0.029987775958246102</v>
       </c>
       <c r="C239" t="n">
         <v>0.0</v>
       </c>
       <c r="D239" t="n">
-        <v>0.015811089618356793</v>
+        <v>0.0</v>
       </c>
       <c r="E239" t="n">
-        <v>0.005619317136666518</v>
+        <v>0.004773656154971381</v>
       </c>
       <c r="F239" t="n">
-        <v>0.008864785072456985</v>
+        <v>0.007439061350087017</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.04851235081319207</v>
+        <v>0.03482843680773818</v>
       </c>
       <c r="B240" t="n">
-        <v>0.058166758432777285</v>
+        <v>0.02521657661143738</v>
       </c>
       <c r="C240" t="n">
         <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.009990255545286772</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.005729134391747899</v>
+        <v>0.004834310616607914</v>
       </c>
       <c r="F240" t="n">
-        <v>0.007986425033814927</v>
+        <v>0.006931764742380215</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.049880140795342066</v>
+        <v>0.03388164512723521</v>
       </c>
       <c r="B241" t="n">
-        <v>0.065372152835437</v>
+        <v>0.024303590294518153</v>
       </c>
       <c r="C241" t="n">
         <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.010845709299251268</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.006018026634756259</v>
+        <v>0.004917926729545902</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00803791549127547</v>
+        <v>0.006862667641756318</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>0.050829282006754836</v>
+      <c r="A242" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B242" t="n">
-        <v>0.06371697641848346</v>
+        <v>0.024753008286138273</v>
       </c>
       <c r="C242" t="n">
         <v>0.0</v>
       </c>
       <c r="D242" t="n">
-        <v>0.011986298680430527</v>
+        <v>0.0</v>
       </c>
       <c r="E242" t="n">
-        <v>0.0056620229390862715</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0.008121470514456434</v>
+        <v>0.004751918114007767</v>
+      </c>
+      <c r="F242" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.051872170905352906</v>
+        <v>0.0341676410902801</v>
       </c>
       <c r="B243" t="n">
-        <v>0.06297320988647173</v>
+        <v>0.024746211761665495</v>
       </c>
       <c r="C243" t="n">
         <v>0.0</v>
       </c>
       <c r="D243" t="n">
-        <v>0.011119881953388023</v>
+        <v>0.0</v>
       </c>
       <c r="E243" t="n">
-        <v>0.005701392373963866</v>
+        <v>0.0047497517514212785</v>
       </c>
       <c r="F243" t="n">
-        <v>0.007989480805532986</v>
+        <v>0.006722553464975367</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.04022812657336293</v>
+        <v>0.0387075370051625</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -5213,10 +5213,10 @@
         <v>0.0</v>
       </c>
       <c r="D244" t="n">
-        <v>0.009624221226420895</v>
+        <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>0.005887491436498112</v>
+        <v>0.004881073284517207</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.04187027213427936</v>
+        <v>0.034446060052904286</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -5244,119 +5244,119 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.05654004226080381</v>
+        <v>0.0349638692634816</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0769435816842601</v>
+        <v>0.0284295510745285</v>
       </c>
       <c r="C246" t="n">
-        <v>0.031111901208095104</v>
+        <v>0.013621939597233675</v>
       </c>
       <c r="D246" t="n">
-        <v>0.009885361416573814</v>
+        <v>0.0</v>
       </c>
       <c r="E246" t="n">
-        <v>0.005600577955030999</v>
+        <v>0.004836818714056019</v>
       </c>
       <c r="F246" t="n">
-        <v>0.00873713786278284</v>
+        <v>0.007143748623837694</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.04593041644573269</v>
+        <v>0.03259396198089596</v>
       </c>
       <c r="B247" t="n">
-        <v>0.05454002722874957</v>
+        <v>0.023423734805216367</v>
       </c>
       <c r="C247" t="n">
-        <v>0.024567185243255175</v>
+        <v>0.013419271222047304</v>
       </c>
       <c r="D247" t="n">
-        <v>0.011457237512041071</v>
+        <v>0.0</v>
       </c>
       <c r="E247" t="n">
-        <v>0.005763400677369536</v>
+        <v>0.004853820985674211</v>
       </c>
       <c r="F247" t="n">
-        <v>0.007693400534426764</v>
+        <v>0.006669256036674418</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.051244328236839234</v>
+        <v>0.03228883883796427</v>
       </c>
       <c r="B248" t="n">
-        <v>0.06364744247897218</v>
+        <v>0.023100019568096857</v>
       </c>
       <c r="C248" t="n">
-        <v>0.029764180924732146</v>
+        <v>0.013905119394978724</v>
       </c>
       <c r="D248" t="n">
-        <v>0.01007510539241805</v>
+        <v>0.0</v>
       </c>
       <c r="E248" t="n">
-        <v>0.006010079691115035</v>
+        <v>0.0049433581490075295</v>
       </c>
       <c r="F248" t="n">
-        <v>0.007760029836105535</v>
+        <v>0.00655813929593765</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.054643162640442076</v>
+        <v>0.03359619856830193</v>
       </c>
       <c r="B249" t="n">
-        <v>0.059354416015863026</v>
+        <v>0.023477897328498327</v>
       </c>
       <c r="C249" t="n">
-        <v>0.029465523253068126</v>
+        <v>0.01517874491263204</v>
       </c>
       <c r="D249" t="n">
-        <v>0.01012214383050312</v>
+        <v>0.0</v>
       </c>
       <c r="E249" t="n">
-        <v>0.005724250767644606</v>
+        <v>0.0049014862918683125</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00781380268180605</v>
+        <v>0.006508585449115159</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.057141321683324586</v>
+        <v>0.03829897557386258</v>
       </c>
       <c r="B250" t="n">
-        <v>0.05955252508531608</v>
+        <v>0.02361064893841756</v>
       </c>
       <c r="C250" t="n">
-        <v>0.031212088109382943</v>
+        <v>0.016144922355811817</v>
       </c>
       <c r="D250" t="n">
-        <v>0.009711960712974027</v>
+        <v>0.0</v>
       </c>
       <c r="E250" t="n">
-        <v>0.0056069640559754065</v>
+        <v>0.00488356052539622</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0077178397144244</v>
+        <v>0.006479394360429797</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.045818648552626795</v>
+        <v>0.03926040288872519</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>0.03185374307982481</v>
+        <v>0.01626289935561003</v>
       </c>
       <c r="D251" t="n">
-        <v>0.010704911997864377</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.005726742276698581</v>
+        <v>0.0047242588428628</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.04422887083137798</v>
+        <v>0.036063338171548456</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -5384,119 +5384,119 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.0644160231326787</v>
+        <v>0.03736186957509994</v>
       </c>
       <c r="B253" t="n">
-        <v>0.07349147001914379</v>
+        <v>0.02726111506907898</v>
       </c>
       <c r="C253" t="n">
-        <v>0.03970758722190662</v>
+        <v>0.01824879187130856</v>
       </c>
       <c r="D253" t="n">
-        <v>0.014124466811111805</v>
+        <v>0.0</v>
       </c>
       <c r="E253" t="n">
-        <v>0.0055632272080226594</v>
+        <v>0.004691062200023356</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00841028416930227</v>
+        <v>0.007083067656683622</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.05228514878188775</v>
+        <v>0.03757927428046786</v>
       </c>
       <c r="B254" t="n">
-        <v>0.05361199235753061</v>
+        <v>0.022255780783884994</v>
       </c>
       <c r="C254" t="n">
-        <v>0.03061053878170474</v>
+        <v>0.016810793520238267</v>
       </c>
       <c r="D254" t="n">
-        <v>0.014152230873739463</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>0.0057124044967950755</v>
+        <v>0.004858637549215558</v>
       </c>
       <c r="F254" t="n">
-        <v>0.007670893396616864</v>
+        <v>0.006610486442101794</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.05629416911754255</v>
+        <v>0.03459100501918778</v>
       </c>
       <c r="B255" t="n">
-        <v>0.06432502491053674</v>
+        <v>0.022687521841252323</v>
       </c>
       <c r="C255" t="n">
-        <v>0.03234764415537787</v>
+        <v>0.015869792658275154</v>
       </c>
       <c r="D255" t="n">
-        <v>0.01165798315630955</v>
+        <v>0.0</v>
       </c>
       <c r="E255" t="n">
-        <v>0.006016874780160084</v>
+        <v>0.004858921989810408</v>
       </c>
       <c r="F255" t="n">
-        <v>0.007812571364388315</v>
+        <v>0.006569897193031046</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.05790634399762277</v>
+        <v>0.03548844586824296</v>
       </c>
       <c r="B256" t="n">
-        <v>0.061175517310690104</v>
+        <v>0.02275079012795951</v>
       </c>
       <c r="C256" t="n">
-        <v>0.032599638362727265</v>
+        <v>0.01593908592107049</v>
       </c>
       <c r="D256" t="n">
-        <v>0.012296749240567555</v>
+        <v>0.0</v>
       </c>
       <c r="E256" t="n">
-        <v>0.0058794861474144025</v>
+        <v>0.00486721971096018</v>
       </c>
       <c r="F256" t="n">
-        <v>0.007708819978746582</v>
+        <v>0.006584893288453009</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.05909588758649557</v>
+        <v>0.035663203474207886</v>
       </c>
       <c r="B257" t="n">
-        <v>0.05958361652137706</v>
+        <v>0.022396590548071367</v>
       </c>
       <c r="C257" t="n">
-        <v>0.03209846420412342</v>
+        <v>0.01579379989358643</v>
       </c>
       <c r="D257" t="n">
-        <v>0.012927949863704095</v>
+        <v>0.0</v>
       </c>
       <c r="E257" t="n">
-        <v>0.005221578301992233</v>
+        <v>0.004771715027813309</v>
       </c>
       <c r="F257" t="n">
-        <v>0.007657550882539572</v>
+        <v>0.006553472890385662</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.046721084076804295</v>
+        <v>0.0396768575875345</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0306928580448781</v>
+        <v>0.015594449226746271</v>
       </c>
       <c r="D258" t="n">
-        <v>0.013863179489398487</v>
+        <v>0.0</v>
       </c>
       <c r="E258" t="n">
-        <v>0.005595122740971175</v>
+        <v>0.004752301321003375</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.0455535735655259</v>
+        <v>0.036306917932575164</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
@@ -5524,119 +5524,119 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.06504424152333312</v>
+        <v>0.03709159963368464</v>
       </c>
       <c r="B260" t="n">
-        <v>0.07587211214387403</v>
+        <v>0.02691144090020903</v>
       </c>
       <c r="C260" t="n">
-        <v>0.03873860341300667</v>
+        <v>0.0174107859838937</v>
       </c>
       <c r="D260" t="n">
-        <v>0.013406237511953648</v>
+        <v>0.0</v>
       </c>
       <c r="E260" t="n">
-        <v>0.005128408395437702</v>
+        <v>0.004752929059416325</v>
       </c>
       <c r="F260" t="n">
-        <v>0.008169469616756126</v>
+        <v>0.006955851904958534</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
-        <v>0.05196861048622839</v>
+      <c r="A261" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B261" t="n">
-        <v>0.05338840079636261</v>
+        <v>0.02246229845949683</v>
       </c>
       <c r="C261" t="n">
-        <v>0.029078313507597868</v>
+        <v>0.016151941918501885</v>
       </c>
       <c r="D261" t="n">
-        <v>0.01114248364848576</v>
+        <v>0.0</v>
       </c>
       <c r="E261" t="n">
-        <v>0.00535508346137568</v>
+        <v>0.004745787072799164</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0074937932353119005</v>
+        <v>0.0065188644792422154</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>0.05645285906783274</v>
-      </c>
-      <c r="B262" t="n">
-        <v>0.062200606166971026</v>
+      <c r="A262" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B262" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C262" t="n">
-        <v>0.03268737778869787</v>
+        <v>0.015101035323611426</v>
       </c>
       <c r="D262" t="n">
-        <v>0.011881164089137867</v>
+        <v>0.0</v>
       </c>
       <c r="E262" t="n">
-        <v>0.005888128079970049</v>
+        <v>0.004935214146472001</v>
       </c>
       <c r="F262" t="n">
-        <v>0.007644883029089541</v>
+        <v>0.006516753559920291</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.05896132806803885</v>
+        <v>0.035082866577063665</v>
       </c>
       <c r="B263" t="n">
-        <v>0.05885259325577816</v>
+        <v>0.022775945972973735</v>
       </c>
       <c r="C263" t="n">
-        <v>0.031827566303630574</v>
+        <v>0.015443294149849646</v>
       </c>
       <c r="D263" t="n">
-        <v>0.012590271212277699</v>
+        <v>0.0</v>
       </c>
       <c r="E263" t="n">
-        <v>0.005682916841827465</v>
+        <v>0.004811293823865523</v>
       </c>
       <c r="F263" t="n">
-        <v>0.007686600743028234</v>
+        <v>0.006514980281978546</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.05930447419473721</v>
+        <v>0.03518635766687765</v>
       </c>
       <c r="B264" t="n">
-        <v>0.05937193830172851</v>
+        <v>0.02281319787617536</v>
       </c>
       <c r="C264" t="n">
-        <v>0.03192696780530805</v>
+        <v>0.015431831452861342</v>
       </c>
       <c r="D264" t="n">
-        <v>0.01060765568284624</v>
+        <v>0.0</v>
       </c>
       <c r="E264" t="n">
-        <v>0.005637032811713024</v>
+        <v>0.0047316331608045015</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0076441205676816</v>
+        <v>0.006508502834617006</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.0460111317922559</v>
+        <v>0.03921111564638653</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.030203191293012778</v>
+        <v>0.014999002448460481</v>
       </c>
       <c r="D265" t="n">
-        <v>0.012028280222477856</v>
+        <v>0.0</v>
       </c>
       <c r="E265" t="n">
-        <v>0.005409374938288834</v>
+        <v>0.004681736764666621</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.04503786933815593</v>
+        <v>0.035772169757200725</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
@@ -5664,119 +5664,119 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.06377016424368888</v>
+        <v>0.03663350044619277</v>
       </c>
       <c r="B267" t="n">
-        <v>0.07130478459767749</v>
+        <v>0.027082503700138018</v>
       </c>
       <c r="C267" t="n">
-        <v>0.038122580301584046</v>
+        <v>0.016924571158444424</v>
       </c>
       <c r="D267" t="n">
-        <v>0.013250049386492602</v>
+        <v>0.0</v>
       </c>
       <c r="E267" t="n">
-        <v>0.0050676476404433474</v>
+        <v>0.0046900781469029285</v>
       </c>
       <c r="F267" t="n">
-        <v>0.008202083480100486</v>
+        <v>0.006909508278363818</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.051925860774013434</v>
+        <v>0.03424650168881298</v>
       </c>
       <c r="B268" t="n">
-        <v>0.054898712449079984</v>
+        <v>0.021749589413781672</v>
       </c>
       <c r="C268" t="n">
-        <v>0.029057243990537798</v>
+        <v>0.015652669225954024</v>
       </c>
       <c r="D268" t="n">
-        <v>0.01120205421874974</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.005501198295973235</v>
+        <v>0.004595282413921105</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00735355243810257</v>
+        <v>0.006463593513753327</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.05591428128996235</v>
+        <v>0.03993225525360226</v>
       </c>
       <c r="B269" t="n">
-        <v>0.06051015093199858</v>
+        <v>0.022443842370667377</v>
       </c>
       <c r="C269" t="n">
-        <v>0.032565699055864566</v>
+        <v>0.015013394497630152</v>
       </c>
       <c r="D269" t="n">
-        <v>0.013261591119919728</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.005586125211819978</v>
+        <v>0.0047555379189005015</v>
       </c>
       <c r="F269" t="n">
-        <v>0.007525967096334959</v>
+        <v>0.006412957337386824</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.0572149766128708</v>
+        <v>0.03434214459521268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.057230234236953996</v>
+        <v>0.022117080363352137</v>
       </c>
       <c r="C270" t="n">
-        <v>0.03062873044726858</v>
+        <v>0.015245868577799028</v>
       </c>
       <c r="D270" t="n">
-        <v>0.010972223250539492</v>
+        <v>0.0</v>
       </c>
       <c r="E270" t="n">
-        <v>0.005347114597397563</v>
+        <v>0.004850981655091518</v>
       </c>
       <c r="F270" t="n">
-        <v>0.007417350745192212</v>
+        <v>0.006403305246672391</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.05800865429590871</v>
+        <v>0.034805946727568454</v>
       </c>
       <c r="B271" t="n">
-        <v>0.05801698262103308</v>
+        <v>0.02220657007841509</v>
       </c>
       <c r="C271" t="n">
-        <v>0.030974861011908036</v>
+        <v>0.01477556649695101</v>
       </c>
       <c r="D271" t="n">
-        <v>0.009856694733736878</v>
+        <v>0.0</v>
       </c>
       <c r="E271" t="n">
-        <v>0.005166938465567676</v>
+        <v>0.004831277689210847</v>
       </c>
       <c r="F271" t="n">
-        <v>0.007364446390349173</v>
+        <v>0.006354616757174574</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.04511840085524989</v>
+        <v>0.03864427527634934</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.030447727592687223</v>
+        <v>0.014702088523375297</v>
       </c>
       <c r="D272" t="n">
-        <v>0.011968419793429198</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>0.005327670349496055</v>
+        <v>0.00470770167166897</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.04425026013620467</v>
+        <v>0.03556104447684825</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
@@ -5804,27 +5804,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.06314017764261576</v>
+        <v>0.03631917802491869</v>
       </c>
       <c r="B274" t="n">
-        <v>0.07235958938086363</v>
+        <v>0.027041533816205936</v>
       </c>
       <c r="C274" t="n">
-        <v>0.038719090546915136</v>
+        <v>0.016626490365558473</v>
       </c>
       <c r="D274" t="n">
-        <v>0.01199247663252846</v>
+        <v>0.0</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0049872925257546516</v>
+        <v>0.004516560878617847</v>
       </c>
       <c r="F274" t="n">
-        <v>0.007989974161865454</v>
+        <v>0.006808011663176502</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.03499424625518464</v>
+        <v>0.032506209132535366</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
@@ -5844,79 +5844,79 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.06159650617697649</v>
+        <v>0.03225668618144269</v>
       </c>
       <c r="B276" t="n">
-        <v>0.08017674936124083</v>
+        <v>0.02301581169603712</v>
       </c>
       <c r="C276" t="n">
-        <v>0.03949541564768456</v>
+        <v>0.015240645981546588</v>
       </c>
       <c r="D276" t="n">
-        <v>0.014890168584649118</v>
+        <v>0.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.0057330986956197465</v>
+        <v>0.004379611334460153</v>
       </c>
       <c r="F276" t="n">
-        <v>0.008108644026195953</v>
+        <v>0.006274522460575801</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.049323481580638213</v>
+        <v>0.03085889296525767</v>
       </c>
       <c r="B277" t="n">
-        <v>0.050288148711950226</v>
+        <v>0.020393583658438266</v>
       </c>
       <c r="C277" t="n">
-        <v>0.028179785566360603</v>
+        <v>0.013850205441718343</v>
       </c>
       <c r="D277" t="n">
-        <v>0.013439291291176403</v>
+        <v>0.0</v>
       </c>
       <c r="E277" t="n">
-        <v>0.005612401817547606</v>
+        <v>0.004493180125673169</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0073089425224265574</v>
+        <v>0.006049102936129163</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.05541436509660338</v>
+        <v>0.029556980709226986</v>
       </c>
       <c r="B278" t="n">
-        <v>0.06128141294486549</v>
+        <v>0.02019025111251367</v>
       </c>
       <c r="C278" t="n">
-        <v>0.03210153230434158</v>
+        <v>0.01280083261693977</v>
       </c>
       <c r="D278" t="n">
-        <v>0.012781850092187089</v>
+        <v>0.0</v>
       </c>
       <c r="E278" t="n">
-        <v>0.005616581868750594</v>
+        <v>0.004640438928254213</v>
       </c>
       <c r="F278" t="n">
-        <v>0.007310464563080303</v>
+        <v>0.005859085584265937</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>0.043582466809144016</v>
+      <c r="A279" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>0.028971531186547904</v>
+        <v>0.013538583702440352</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0127376597824819</v>
+        <v>0.0</v>
       </c>
       <c r="E279" t="n">
-        <v>0.0051274146966037906</v>
+        <v>0.004606675566980352</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.043895381953886224</v>
+        <v>0.03702985880508502</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
@@ -5944,47 +5944,47 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.06305422232952516</v>
+        <v>0.03622933715529455</v>
       </c>
       <c r="B281" t="n">
-        <v>0.07118969040588739</v>
+        <v>0.02586841816644876</v>
       </c>
       <c r="C281" t="n">
-        <v>0.03846625542016584</v>
+        <v>0.016446743258665873</v>
       </c>
       <c r="D281" t="n">
-        <v>0.01342829117729733</v>
+        <v>0.0</v>
       </c>
       <c r="E281" t="n">
-        <v>0.004957360857383158</v>
+        <v>0.004201007353938574</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00778899588335621</v>
+        <v>0.006488713697793275</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>0.051934971205320465</v>
+      <c r="A282" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B282" t="n">
-        <v>0.051830711957514125</v>
+        <v>0.020160080937727084</v>
       </c>
       <c r="C282" t="n">
-        <v>0.028194362504685988</v>
+        <v>0.01415672748685533</v>
       </c>
       <c r="D282" t="n">
-        <v>0.011295516087039385</v>
+        <v>0.0</v>
       </c>
       <c r="E282" t="n">
-        <v>0.005233035619381769</v>
+        <v>0.0042460532289283395</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0071458948715020275</v>
+        <v>0.005947377981759166</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.038242955538326635</v>
+        <v>0.030075325068692777</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
@@ -6003,60 +6003,60 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
-        <v>0.06313249706088997</v>
-      </c>
-      <c r="B284" t="n">
-        <v>0.07498336239152821</v>
+      <c r="A284" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B284" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C284" t="n">
-        <v>0.03723463007622172</v>
+        <v>0.01615237643318295</v>
       </c>
       <c r="D284" t="n">
-        <v>0.015001625368417983</v>
+        <v>0.0</v>
       </c>
       <c r="E284" t="n">
-        <v>0.005366514297275752</v>
+        <v>0.00421436163253635</v>
       </c>
       <c r="F284" t="n">
-        <v>0.007786852882131654</v>
+        <v>0.006118394450373539</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.050193152221194075</v>
+        <v>0.03218745621422158</v>
       </c>
       <c r="B285" t="n">
-        <v>0.04921813983852563</v>
+        <v>0.02053240014871871</v>
       </c>
       <c r="C285" t="n">
-        <v>0.027359273419254065</v>
+        <v>0.013977785208397858</v>
       </c>
       <c r="D285" t="n">
-        <v>0.010039460612179052</v>
+        <v>0.0</v>
       </c>
       <c r="E285" t="n">
-        <v>0.005558748587888696</v>
+        <v>0.0042021695426388015</v>
       </c>
       <c r="F285" t="n">
-        <v>0.007272906292289682</v>
+        <v>0.005856080559515984</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.043188171398433735</v>
+        <v>0.033890607658247064</v>
       </c>
       <c r="B286" t="n">
         <v>0.0</v>
       </c>
       <c r="C286" t="n">
-        <v>0.028954615282816586</v>
+        <v>0.012580492535254919</v>
       </c>
       <c r="D286" t="n">
-        <v>0.009653261297828387</v>
+        <v>0.0</v>
       </c>
       <c r="E286" t="n">
-        <v>0.005246962902736344</v>
+        <v>0.004255466412150862</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.043080221708626375</v>
+        <v>0.03325082330749904</v>
       </c>
       <c r="B287" t="n">
         <v>0.0</v>
@@ -6083,120 +6083,120 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>0.06168260300815624</v>
+      <c r="A288" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B288" t="n">
-        <v>0.06751096958972144</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.03850633020481574</v>
+        <v>0.025079631649922152</v>
+      </c>
+      <c r="C288" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D288" t="n">
-        <v>0.011547050018645626</v>
+        <v>0.0</v>
       </c>
       <c r="E288" t="n">
-        <v>0.004982971857757965</v>
+        <v>0.003864493316289743</v>
       </c>
       <c r="F288" t="n">
-        <v>0.007668916210569603</v>
+        <v>0.006209586240756907</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.0499293387018757</v>
+        <v>0.03153590030607737</v>
       </c>
       <c r="B289" t="n">
-        <v>0.052125918487360874</v>
+        <v>0.018886241452720366</v>
       </c>
       <c r="C289" t="n">
-        <v>0.026383316104793306</v>
+        <v>0.013515387424863948</v>
       </c>
       <c r="D289" t="n">
-        <v>0.009628724325184529</v>
+        <v>0.0</v>
       </c>
       <c r="E289" t="n">
-        <v>0.005084420697852561</v>
+        <v>0.004082401877387645</v>
       </c>
       <c r="F289" t="n">
-        <v>0.007063365848384386</v>
+        <v>0.005626852701677949</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.054628225899060495</v>
+        <v>0.030760697724070463</v>
       </c>
       <c r="B290" t="n">
-        <v>0.0573740108167657</v>
+        <v>0.019778022616105444</v>
       </c>
       <c r="C290" t="n">
-        <v>0.031046044859153618</v>
+        <v>0.012966121388068623</v>
       </c>
       <c r="D290" t="n">
-        <v>0.010280975031595025</v>
+        <v>0.0</v>
       </c>
       <c r="E290" t="n">
-        <v>0.004899328662003423</v>
+        <v>0.004082274841732463</v>
       </c>
       <c r="F290" t="n">
-        <v>0.007121512636508015</v>
+        <v>0.005653454042699358</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.05543192154555681</v>
+        <v>0.028799086029619145</v>
       </c>
       <c r="B291" t="n">
-        <v>0.056374959997926626</v>
+        <v>0.020761623833046167</v>
       </c>
       <c r="C291" t="n">
-        <v>0.02872340999479302</v>
+        <v>0.01363248951428359</v>
       </c>
       <c r="D291" t="n">
-        <v>0.008548933315350036</v>
+        <v>0.0</v>
       </c>
       <c r="E291" t="n">
-        <v>0.005262921354510386</v>
+        <v>0.004038812314667943</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0071872888558632666</v>
+        <v>0.005693579717326043</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.05706970334681638</v>
+        <v>0.032696512444363196</v>
       </c>
       <c r="B292" t="n">
-        <v>0.05525362721358791</v>
+        <v>0.020829453522588998</v>
       </c>
       <c r="C292" t="n">
-        <v>0.02985234447014559</v>
+        <v>0.013377601352057875</v>
       </c>
       <c r="D292" t="n">
-        <v>0.01251779056573972</v>
+        <v>0.0</v>
       </c>
       <c r="E292" t="n">
-        <v>0.005374731571380686</v>
+        <v>0.004113886671788101</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0072622948313059</v>
+        <v>0.005715594525785366</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.04491291547946496</v>
+        <v>0.03654002033587425</v>
       </c>
       <c r="B293" t="n">
         <v>0.0</v>
       </c>
       <c r="C293" t="n">
-        <v>0.02936837337172239</v>
+        <v>0.013290994705806908</v>
       </c>
       <c r="D293" t="n">
-        <v>0.009407091012814683</v>
+        <v>0.0</v>
       </c>
       <c r="E293" t="n">
-        <v>0.005076109602664757</v>
+        <v>0.003992676917745434</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.04369823363757291</v>
+        <v>0.03558368945313047</v>
       </c>
       <c r="B294" t="n">
         <v>0.0</v>
@@ -6223,128 +6223,128 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>0.06173231746441586</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.06943396097716352</v>
-      </c>
-      <c r="C295" t="n">
-        <v>0.03637621652294937</v>
+      <c r="A295" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B295" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C295" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D295" t="n">
-        <v>0.013461584010134305</v>
+        <v>0.0</v>
       </c>
       <c r="E295" t="n">
-        <v>0.005241030946085852</v>
-      </c>
-      <c r="F295" t="n">
-        <v>0.007618396021780171</v>
+        <v>0.003889777971184505</v>
+      </c>
+      <c r="F295" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.05089933668927103</v>
+        <v>0.03259386843448427</v>
       </c>
       <c r="B296" t="n">
-        <v>0.05161878932875498</v>
+        <v>0.019793408405420578</v>
       </c>
       <c r="C296" t="n">
-        <v>0.027992790399027308</v>
+        <v>0.013689946403555859</v>
       </c>
       <c r="D296" t="n">
-        <v>0.011617771381947252</v>
+        <v>0.0</v>
       </c>
       <c r="E296" t="n">
-        <v>0.005101834634823692</v>
+        <v>0.003985329384601281</v>
       </c>
       <c r="F296" t="n">
-        <v>0.007013238554557287</v>
+        <v>0.005702358307864211</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.06979939608379576</v>
+        <v>0.031281975424675104</v>
       </c>
       <c r="B297" t="n">
-        <v>0.05907041110850778</v>
+        <v>0.019601202909562333</v>
       </c>
       <c r="C297" t="n">
-        <v>0.032311622870669965</v>
+        <v>0.013097687387728225</v>
       </c>
       <c r="D297" t="n">
-        <v>0.010342178507244065</v>
+        <v>0.0</v>
       </c>
       <c r="E297" t="n">
-        <v>0.005396691774648147</v>
+        <v>0.004264122201579602</v>
       </c>
       <c r="F297" t="n">
-        <v>0.007267716689501205</v>
+        <v>0.005733154181980697</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.054262855258428846</v>
+        <v>0.0319682686426764</v>
       </c>
       <c r="B298" t="n">
-        <v>0.05616238212898737</v>
+        <v>0.020406102108913474</v>
       </c>
       <c r="C298" t="n">
-        <v>0.02894337417235004</v>
+        <v>0.013498046755423116</v>
       </c>
       <c r="D298" t="n">
-        <v>0.009059813730405902</v>
+        <v>0.0</v>
       </c>
       <c r="E298" t="n">
-        <v>0.005529514155231883</v>
+        <v>0.0042260802699270895</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00721961947145087</v>
+        <v>0.005751715851421344</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
-        <v>0.056376212232541335</v>
+      <c r="A299" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B299" t="n">
-        <v>0.057633337747663</v>
-      </c>
-      <c r="C299" t="n">
-        <v>0.029929290469924152</v>
+        <v>0.02053560930574862</v>
+      </c>
+      <c r="C299" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D299" t="n">
-        <v>0.010867600537650969</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>0.005273986373776044</v>
+        <v>0.004184269644220341</v>
       </c>
       <c r="F299" t="n">
-        <v>0.007198997965031982</v>
+        <v>0.005745519827270361</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.04335870039389835</v>
+        <v>0.035982751188989866</v>
       </c>
       <c r="B300" t="n">
         <v>0.0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.029356653896806306</v>
+        <v>0.0133152403503234</v>
       </c>
       <c r="D300" t="n">
-        <v>0.012661362902711954</v>
+        <v>0.0</v>
       </c>
       <c r="E300" t="n">
-        <v>0.005106546256215824</v>
+        <v>0.004267106063219454</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
-        <v>0.04232071189938409</v>
+      <c r="A301" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B301" t="n">
         <v>0.0</v>
@@ -6364,90 +6364,90 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.0606347037374104</v>
+        <v>0.03519193667497756</v>
       </c>
       <c r="B302" t="n">
-        <v>0.0685584173661986</v>
+        <v>0.025638706303896756</v>
       </c>
       <c r="C302" t="n">
-        <v>0.036008612421392173</v>
+        <v>0.01587398512230543</v>
       </c>
       <c r="D302" t="n">
-        <v>0.012886614483017294</v>
+        <v>0.0</v>
       </c>
       <c r="E302" t="n">
-        <v>0.005291309495315416</v>
+        <v>0.004016744424979646</v>
       </c>
       <c r="F302" t="n">
-        <v>0.007707447968891245</v>
+        <v>0.006146738151136788</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
-        <v>0.04985495259536853</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.05361224712512077</v>
+      <c r="A303" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B303" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C303" t="n">
-        <v>0.027629832898067648</v>
+        <v>0.013559021214697264</v>
       </c>
       <c r="D303" t="n">
-        <v>0.010992977791101624</v>
+        <v>0.0</v>
       </c>
       <c r="E303" t="n">
-        <v>0.005264235349264371</v>
+        <v>0.004095104874885194</v>
       </c>
       <c r="F303" t="n">
-        <v>0.006942995481450856</v>
+        <v>0.005660169947404384</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
-        <v>0.05304004357863662</v>
-      </c>
-      <c r="B304" t="n">
-        <v>0.0585745382727469</v>
+      <c r="A304" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B304" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C304" t="n">
-        <v>0.03132573864636887</v>
+        <v>0.012822779606992954</v>
       </c>
       <c r="D304" t="n">
-        <v>0.013176747450145814</v>
+        <v>0.0</v>
       </c>
       <c r="E304" t="n">
-        <v>0.005055775870206297</v>
+        <v>0.004120185056616534</v>
       </c>
       <c r="F304" t="n">
-        <v>0.007077560916285957</v>
+        <v>0.0056537518231123945</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.04930082365544948</v>
+        <v>0.031733572293377685</v>
       </c>
       <c r="B305" t="n">
-        <v>0.0555611313073468</v>
+        <v>0.020038206978077996</v>
       </c>
       <c r="C305" t="n">
-        <v>0.029099959217441067</v>
+        <v>0.013502637920901948</v>
       </c>
       <c r="D305" t="n">
-        <v>0.01079233097170599</v>
+        <v>0.0</v>
       </c>
       <c r="E305" t="n">
-        <v>0.005235076401660414</v>
+        <v>0.004096363706937145</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00714725260051908</v>
+        <v>0.005657917737119678</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
-        <v>0.051515434393250466</v>
+      <c r="A306" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B306" t="n">
-        <v>0.05552075089647963</v>
+        <v>0.02016744131989236</v>
       </c>
       <c r="C306" t="n">
         <v>0.0</v>
@@ -6459,12 +6459,12 @@
         <v>0.0</v>
       </c>
       <c r="F306" t="n">
-        <v>0.007206870856829761</v>
+        <v>0.005642488624374665</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.04209857401759648</v>
+        <v>0.03823863383835765</v>
       </c>
       <c r="B307" t="n">
         <v>0.0</v>
@@ -6483,8 +6483,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>0.04142514581452645</v>
+      <c r="A308" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B308" t="n">
         <v>0.0</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.051602263781269864</v>
+        <v>0.03419127287748344</v>
       </c>
       <c r="B309" t="n">
-        <v>0.06794512018533694</v>
+        <v>0.0246913827415192</v>
       </c>
       <c r="C309" t="n">
         <v>0.0</v>
@@ -6519,15 +6519,15 @@
         <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.0076650820042725954</v>
+        <v>0.006043120193796911</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
-        <v>0.04484281276618106</v>
+      <c r="A310" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B310" t="n">
-        <v>0.051595597509443716</v>
+        <v>0.019426762298965533</v>
       </c>
       <c r="C310" t="n">
         <v>0.0</v>
@@ -6539,15 +6539,15 @@
         <v>0.0</v>
       </c>
       <c r="F310" t="n">
-        <v>0.00725316869403436</v>
+        <v>0.005626901212780561</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.04449669654168016</v>
+        <v>0.029981964612777277</v>
       </c>
       <c r="B311" t="n">
-        <v>0.058043598463254686</v>
+        <v>0.019725683774585258</v>
       </c>
       <c r="C311" t="n">
         <v>0.0</v>
@@ -6559,15 +6559,15 @@
         <v>0.0</v>
       </c>
       <c r="F311" t="n">
-        <v>0.007032996730608285</v>
+        <v>0.005636946777020903</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.04484983604741288</v>
+        <v>0.029366457652032107</v>
       </c>
       <c r="B312" t="n">
-        <v>0.05610839723662013</v>
+        <v>0.020124934758536345</v>
       </c>
       <c r="C312" t="n">
         <v>0.0</v>
@@ -6579,15 +6579,15 @@
         <v>0.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00719850392184196</v>
+        <v>0.005634194343199632</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.04501826064767724</v>
+        <v>0.028728550858684684</v>
       </c>
       <c r="B313" t="n">
-        <v>0.05607394623208904</v>
+        <v>0.020445881094383556</v>
       </c>
       <c r="C313" t="n">
         <v>0.0</v>
@@ -6599,12 +6599,12 @@
         <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>0.00713002130836572</v>
+        <v>0.0056400679009761265</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.034994614062235745</v>
+        <v>0.032412161238703024</v>
       </c>
       <c r="B314" t="n">
         <v>0.0</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.037384185127836984</v>
+        <v>0.03101099791433239</v>
       </c>
       <c r="B315" t="n">
         <v>0.0</v>
@@ -6644,27 +6644,27 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.04914834900995773</v>
+        <v>0.031441196527135916</v>
       </c>
       <c r="B316" t="n">
-        <v>0.07073609887091328</v>
+        <v>0.026226960435584375</v>
       </c>
       <c r="C316" t="n">
         <v>0.0</v>
       </c>
       <c r="D316" t="n">
-        <v>0.010739966760367365</v>
+        <v>0.0</v>
       </c>
       <c r="E316" t="n">
-        <v>0.004837565675083244</v>
+        <v>0.0038593586727786013</v>
       </c>
       <c r="F316" t="n">
-        <v>0.007759996467782675</v>
+        <v>0.006243267926251486</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.028853494946753048</v>
+        <v>0.03003897859527496</v>
       </c>
       <c r="B317" t="n">
         <v>0.0</v>
@@ -6684,10 +6684,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.047201916088083246</v>
+        <v>0.029495456228570638</v>
       </c>
       <c r="B318" t="n">
-        <v>0.07551065364511063</v>
+        <v>0.022787209329323183</v>
       </c>
       <c r="C318" t="n">
         <v>0.0</v>
@@ -6699,15 +6699,15 @@
         <v>0.0</v>
       </c>
       <c r="F318" t="n">
-        <v>0.007429773226780112</v>
+        <v>0.00590400026723583</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.04057454421680269</v>
+        <v>0.028882441643371698</v>
       </c>
       <c r="B319" t="n">
-        <v>0.04779729467331122</v>
+        <v>0.021168321879420998</v>
       </c>
       <c r="C319" t="n">
         <v>0.0</v>
@@ -6719,32 +6719,32 @@
         <v>0.0</v>
       </c>
       <c r="F319" t="n">
-        <v>0.006725073557943101</v>
+        <v>0.005663499702699703</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.044977867757559895</v>
+        <v>0.027587486823232827</v>
       </c>
       <c r="B320" t="n">
-        <v>0.05677332318395194</v>
+        <v>0.019679886006297703</v>
       </c>
       <c r="C320" t="n">
         <v>0.0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.012072755731298051</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>0.005147460317400366</v>
+        <v>0.00442589874553689</v>
       </c>
       <c r="F320" t="n">
-        <v>0.006755654506477603</v>
+        <v>0.005405625861692183</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.03440723898781671</v>
+        <v>0.0322832388384857</v>
       </c>
       <c r="B321" t="n">
         <v>0.0</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.0375126378526817</v>
+        <v>0.030028722064222833</v>
       </c>
       <c r="B322" t="n">
         <v>0.0</v>
@@ -6784,10 +6784,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.0486510880270047</v>
+        <v>0.03167946243283592</v>
       </c>
       <c r="B323" t="n">
-        <v>0.07024819837729708</v>
+        <v>0.02494675570238834</v>
       </c>
       <c r="C323" t="n">
         <v>0.0</v>
@@ -6799,35 +6799,35 @@
         <v>0.0</v>
       </c>
       <c r="F323" t="n">
-        <v>0.007682403698680862</v>
+        <v>0.005999109166823945</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.042755506420462386</v>
+        <v>0.029265208911065634</v>
       </c>
       <c r="B324" t="n">
-        <v>0.04837613212258228</v>
+        <v>0.019370170737847674</v>
       </c>
       <c r="C324" t="n">
         <v>0.0</v>
       </c>
       <c r="D324" t="n">
-        <v>0.01291737872637487</v>
+        <v>0.0</v>
       </c>
       <c r="E324" t="n">
-        <v>0.004916498125806477</v>
+        <v>0.004052605231877863</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0068081458788588475</v>
+        <v>0.005519385884536164</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.04381183001120158</v>
+        <v>0.029291394528741806</v>
       </c>
       <c r="B325" t="n">
-        <v>0.05628506800387826</v>
+        <v>0.01921035327637259</v>
       </c>
       <c r="C325" t="n">
         <v>0.0</v>
@@ -6839,15 +6839,15 @@
         <v>0.0</v>
       </c>
       <c r="F325" t="n">
-        <v>0.006784154934002418</v>
+        <v>0.005478074409549867</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.04568787087429775</v>
+        <v>0.029796753681430085</v>
       </c>
       <c r="B326" t="n">
-        <v>0.05316305892918999</v>
+        <v>0.019464433853169424</v>
       </c>
       <c r="C326" t="n">
         <v>0.0</v>
@@ -6859,15 +6859,15 @@
         <v>0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>0.006972492903727126</v>
+        <v>0.00547273651358467</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
-        <v>0.04686063552690425</v>
+      <c r="A327" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B327" t="n">
-        <v>0.056123288789251526</v>
+        <v>0.019632085430803612</v>
       </c>
       <c r="C327" t="n">
         <v>0.0</v>
@@ -6879,12 +6879,12 @@
         <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.006903357819808983</v>
+        <v>0.005409957067377822</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.0360685213448881</v>
+        <v>0.0337101437582588</v>
       </c>
       <c r="B328" t="n">
         <v>0.0</v>
@@ -6893,10 +6893,10 @@
         <v>0.0</v>
       </c>
       <c r="D328" t="n">
-        <v>0.007066867597060321</v>
+        <v>0.0</v>
       </c>
       <c r="E328" t="n">
-        <v>0.0051713388106931395</v>
+        <v>0.004008213989154656</v>
       </c>
       <c r="F328" t="n">
         <v>0.0</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.03768097207224223</v>
+        <v>0.031070460963004847</v>
       </c>
       <c r="B329" t="n">
         <v>0.0</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.04793102248215257</v>
+        <v>0.03222893240587254</v>
       </c>
       <c r="B330" t="n">
-        <v>0.06601574661587498</v>
+        <v>0.02493877244103326</v>
       </c>
       <c r="C330" t="n">
         <v>0.0</v>
@@ -6939,15 +6939,15 @@
         <v>0.0</v>
       </c>
       <c r="F330" t="n">
-        <v>0.007586886450444305</v>
+        <v>0.006059921230218484</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.041464856170777005</v>
+        <v>0.029937409159228365</v>
       </c>
       <c r="B331" t="n">
-        <v>0.050049476088821265</v>
+        <v>0.019658307954195903</v>
       </c>
       <c r="C331" t="n">
         <v>0.0</v>
@@ -6959,35 +6959,35 @@
         <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>0.006725561278598757</v>
+        <v>0.005625145308901596</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.044147843325622736</v>
+        <v>0.02775106603961824</v>
       </c>
       <c r="B332" t="n">
-        <v>0.057824782249709</v>
+        <v>0.0192498182938788</v>
       </c>
       <c r="C332" t="n">
         <v>0.0</v>
       </c>
       <c r="D332" t="n">
-        <v>0.007918825601214237</v>
+        <v>0.0</v>
       </c>
       <c r="E332" t="n">
-        <v>0.005357961542215768</v>
+        <v>0.00395550509187981</v>
       </c>
       <c r="F332" t="n">
-        <v>0.006931324077378491</v>
+        <v>0.005505304003834948</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.04373384414231454</v>
+        <v>0.029161633942178373</v>
       </c>
       <c r="B333" t="n">
-        <v>0.054097759267250634</v>
+        <v>0.0195337156021604</v>
       </c>
       <c r="C333" t="n">
         <v>0.0</v>
@@ -6999,15 +6999,15 @@
         <v>0.0</v>
       </c>
       <c r="F333" t="n">
-        <v>0.007016785398973194</v>
+        <v>0.005470740685117873</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.0441346139478766</v>
+        <v>0.02928996774085803</v>
       </c>
       <c r="B334" t="n">
-        <v>0.053987193303398684</v>
+        <v>0.019814580046358787</v>
       </c>
       <c r="C334" t="n">
         <v>0.0</v>
@@ -7019,12 +7019,12 @@
         <v>0.0</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00699394589434284</v>
+        <v>0.005456697669350588</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.03460535264541089</v>
+        <v>0.03346078759602929</v>
       </c>
       <c r="B335" t="n">
         <v>0.0</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.035890690659937545</v>
+        <v>0.030952453997469855</v>
       </c>
       <c r="B336" t="n">
         <v>0.0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.044919572638333585</v>
+        <v>0.032755883831731114</v>
       </c>
       <c r="B337" t="n">
         <v>0.0</v>
@@ -7079,12 +7079,12 @@
         <v>0.0</v>
       </c>
       <c r="F337" t="n">
-        <v>0.007757560197912751</v>
+        <v>0.006067360808714176</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.04055553574682236</v>
+        <v>0.030722744662360718</v>
       </c>
       <c r="B338" t="n">
         <v>0.0</v>
@@ -7099,12 +7099,12 @@
         <v>0.0</v>
       </c>
       <c r="F338" t="n">
-        <v>0.006766766166848796</v>
+        <v>0.005537723341231698</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.03842380442160315</v>
+        <v>0.029582846304461483</v>
       </c>
       <c r="B339" t="n">
         <v>0.0</v>
@@ -7119,12 +7119,12 @@
         <v>0.0</v>
       </c>
       <c r="F339" t="n">
-        <v>0.006811276785887125</v>
+        <v>0.005477224511861783</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.03693237761089852</v>
+        <v>0.028559357111333693</v>
       </c>
       <c r="B340" t="n">
         <v>0.0</v>
@@ -7139,12 +7139,12 @@
         <v>0.0</v>
       </c>
       <c r="F340" t="n">
-        <v>0.006874298228787422</v>
+        <v>0.005492245116133563</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.03610112739501791</v>
+        <v>0.027668428590770195</v>
       </c>
       <c r="B341" t="n">
         <v>0.0</v>
@@ -7159,12 +7159,12 @@
         <v>0.0</v>
       </c>
       <c r="F341" t="n">
-        <v>0.007006850585568121</v>
+        <v>0.0054769370882908775</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.026525453366601323</v>
+        <v>0.02549409555410709</v>
       </c>
       <c r="B342" t="n">
         <v>0.0</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.028078006157894145</v>
+        <v>0.02588157531816178</v>
       </c>
       <c r="B343" t="n">
         <v>0.0</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.03654796442608465</v>
+        <v>0.027891491362027374</v>
       </c>
       <c r="B344" t="n">
         <v>0.0</v>
@@ -7219,12 +7219,12 @@
         <v>0.0</v>
       </c>
       <c r="F344" t="n">
-        <v>0.007776515881095111</v>
+        <v>0.0061323324528190955</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.03349684013257164</v>
+        <v>0.02675668595214635</v>
       </c>
       <c r="B345" t="n">
         <v>0.0</v>
@@ -7239,12 +7239,12 @@
         <v>0.0</v>
       </c>
       <c r="F345" t="n">
-        <v>0.006619516519910093</v>
+        <v>0.005643102908568169</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.03357037443192993</v>
+        <v>0.026404794764099675</v>
       </c>
       <c r="B346" t="n">
         <v>0.0</v>
@@ -7259,12 +7259,12 @@
         <v>0.0</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0063071625478557675</v>
+        <v>0.005528020498332028</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.033738114766120826</v>
+        <v>0.026606095514086183</v>
       </c>
       <c r="B347" t="n">
         <v>0.0</v>
@@ -7279,12 +7279,12 @@
         <v>0.0</v>
       </c>
       <c r="F347" t="n">
-        <v>0.006717954761042113</v>
+        <v>0.005478753826728852</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.03482973451975942</v>
+        <v>0.02638082173637252</v>
       </c>
       <c r="B348" t="n">
         <v>0.0</v>
@@ -7299,12 +7299,12 @@
         <v>0.0</v>
       </c>
       <c r="F348" t="n">
-        <v>0.006958599098066751</v>
+        <v>0.005448681547415605</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.02631725005265865</v>
+        <v>0.02498425592983687</v>
       </c>
       <c r="B349" t="n">
         <v>0.0</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.02845351203516387</v>
+        <v>0.025831504147712226</v>
       </c>
       <c r="B350" t="n">
         <v>0.0</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.036856836046511764</v>
+        <v>0.027930804714075004</v>
       </c>
       <c r="B351" t="n">
         <v>0.0</v>
@@ -7359,12 +7359,12 @@
         <v>0.0</v>
       </c>
       <c r="F351" t="n">
-        <v>0.007654619398288365</v>
+        <v>0.005993885694274277</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.03343413917390408</v>
+        <v>0.026681466564686996</v>
       </c>
       <c r="B352" t="n">
         <v>0.0</v>
@@ -7379,12 +7379,12 @@
         <v>0.0</v>
       </c>
       <c r="F352" t="n">
-        <v>0.006642711944628045</v>
+        <v>0.005564841122801375</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.03283311338230477</v>
+        <v>0.026477427714728385</v>
       </c>
       <c r="B353" t="n">
         <v>0.0</v>
@@ -7399,12 +7399,12 @@
         <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0065786454738020125</v>
+        <v>0.005385084858283976</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.03390141481445279</v>
+        <v>0.026745548482548325</v>
       </c>
       <c r="B354" t="n">
         <v>0.0</v>
@@ -7419,12 +7419,12 @@
         <v>0.0</v>
       </c>
       <c r="F354" t="n">
-        <v>0.006588116759974233</v>
+        <v>0.005457475683950231</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.03508173598347026</v>
+        <v>0.026719874874928964</v>
       </c>
       <c r="B355" t="n">
         <v>0.0</v>
@@ -7439,12 +7439,12 @@
         <v>0.0</v>
       </c>
       <c r="F355" t="n">
-        <v>0.006907588135676447</v>
+        <v>0.0053674751770605815</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.026426026669166526</v>
+        <v>0.025243067555782834</v>
       </c>
       <c r="B356" t="n">
         <v>0.0</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.027536479298396668</v>
+        <v>0.025955563883070135</v>
       </c>
       <c r="B357" t="n">
         <v>0.0</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.03668834988219677</v>
+        <v>0.027897990510515953</v>
       </c>
       <c r="B358" t="n">
         <v>0.0</v>
@@ -7499,12 +7499,12 @@
         <v>0.0</v>
       </c>
       <c r="F358" t="n">
-        <v>0.007585586534999005</v>
+        <v>0.006031932398695704</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.033795944469012615</v>
+        <v>0.026853308060755088</v>
       </c>
       <c r="B359" t="n">
         <v>0.0</v>
@@ -7519,12 +7519,12 @@
         <v>0.0</v>
       </c>
       <c r="F359" t="n">
-        <v>0.006704876105647882</v>
+        <v>0.005594360728771134</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.03401214176523575</v>
+        <v>0.026330331628208265</v>
       </c>
       <c r="B360" t="n">
         <v>0.0</v>
@@ -7539,12 +7539,12 @@
         <v>0.0</v>
       </c>
       <c r="F360" t="n">
-        <v>0.006614397305643791</v>
+        <v>0.005454094494449449</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.03418184635034281</v>
+        <v>0.026425105621428524</v>
       </c>
       <c r="B361" t="n">
         <v>0.0</v>
@@ -7559,12 +7559,12 @@
         <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.006690359541331158</v>
+        <v>0.005425055525732864</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.03533124096056365</v>
+        <v>0.02647242663192465</v>
       </c>
       <c r="B362" t="n">
         <v>0.0</v>
@@ -7579,12 +7579,12 @@
         <v>0.0</v>
       </c>
       <c r="F362" t="n">
-        <v>0.006776570597030445</v>
+        <v>0.005445552477375602</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.0270523956452241</v>
+        <v>0.02485282436460898</v>
       </c>
       <c r="B363" t="n">
         <v>0.0</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.02858324884066286</v>
+        <v>0.02553207088803256</v>
       </c>
       <c r="B364" t="n">
         <v>0.0</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.037266110781373894</v>
+        <v>0.027552602154767722</v>
       </c>
       <c r="B365" t="n">
         <v>0.0</v>
@@ -7639,7 +7639,7 @@
         <v>0.0</v>
       </c>
       <c r="F365" t="n">
-        <v>0.007576830267863228</v>
+        <v>0.006006560110309366</v>
       </c>
     </row>
   </sheetData>
